--- a/table.xlsx
+++ b/table.xlsx
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>NEW  S22 Research Assistant 139346B E3</t>
+          <t>S22 Research Assistant 139346B E3</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>141011</v>
+        <v>141133</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>S22 Co-op Student, Enterprise Risk Management 141011</t>
+          <t>S22 Laboratory Analyst (Edmonton) 141133</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Alberta Investment Management Corporation (AIMCO)</t>
+          <t>ALS Global</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1172,11 +1172,11 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M15" t="inlineStr"/>
@@ -1198,16 +1198,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>140888</v>
+        <v>140608</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>S22 DevOps Co-op 140888B E1</t>
+          <t>S22 Data Scientist Intern 140608B E3</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Alcumus Group Limited</t>
+          <t>Altair</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1221,11 +1221,11 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M16" t="inlineStr"/>
@@ -1236,27 +1236,31 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlist  Applied</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Applied via employer's website</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>2022 - Summer</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>140890</v>
+        <v>139124</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>S22 Product Management Co-op 140890B E1</t>
+          <t>S22 Software Development Engineer Intern - Summer 2022 (Job ID: 1559866) 139124 E7</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Alcumus Group Limited</t>
+          <t>Amazon.com</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1266,15 +1270,15 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 16, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M17" t="inlineStr"/>
@@ -1285,27 +1289,31 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlist  Applied</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Applied via employer's website</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>2022 - Summer</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>141133</v>
+        <v>139931</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>S22 Laboratory Analyst (Edmonton) 141133</t>
+          <t>S22 Software Development Engineer - 2022 (Canada; Req: 1559865) 139931 E3</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>ALS Global</t>
+          <t>Amazon.com</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1315,15 +1323,15 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Edmonton, AB</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 16, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M18" t="inlineStr"/>
@@ -1345,16 +1353,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>140608</v>
+        <v>140233</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>S22 Data Scientist Intern 140608B E3</t>
+          <t>S22 Co-op Summer 2022 Intern - Software Development &amp;amp; Testing - Electronics 140233 E1</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Altair</t>
+          <t>ANSYS Canada Ltd.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1364,15 +1372,15 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M19" t="inlineStr"/>
@@ -1383,31 +1391,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Shortlist  Applied</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Applied via employer's website</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>2022 - Summer</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>139124</v>
+        <v>140318</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>S22 Software Development Engineer Intern - Summer 2022 (Job ID: 1559866) 139124 E7</t>
+          <t>S22 Co-op Various co-op Opportunities 140318 E1</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Amazon.com</t>
+          <t>ANSYS Canada Ltd.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1417,15 +1421,15 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Various, Canada</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Mar 16, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M20" t="inlineStr"/>
@@ -1436,31 +1440,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Shortlist  Applied</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Applied via employer's website</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>2022 - Summer</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>139931</v>
+        <v>140984</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>S22 Software Development Engineer - 2022 (Canada; Req: 1559865) 139931 E3</t>
+          <t>S22 Co-op Process Automation Co-op Student 140984</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Amazon.com</t>
+          <t>ArcelorMittal Dofasco Inc.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1470,15 +1470,15 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Hamilton, ON</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Mar 16, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M21" t="inlineStr"/>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1500,16 +1500,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>140233</v>
+        <v>139409</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>S22 Co-op Summer 2022 Intern - Software Development &amp;amp; Testing - Electronics 140233 E1</t>
+          <t>S22 Software Engineer (EOS) 139409 E4</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>ANSYS Canada Ltd.</t>
+          <t>Arista Networks</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1519,15 +1519,15 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Mar 14, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M22" t="inlineStr"/>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1549,16 +1549,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>140318</v>
+        <v>139410</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>S22 Co-op Various co-op Opportunities 140318 E1</t>
+          <t>S22 Software Engineer (SDN Fabric) 139410 E4</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>ANSYS Canada Ltd.</t>
+          <t>Arista Networks</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1568,15 +1568,15 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Various, Canada</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Mar 14, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M23" t="inlineStr"/>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1598,16 +1598,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>140984</v>
+        <v>139413</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>S22 Co-op Process Automation Co-op Student 140984</t>
+          <t>S22 Software Engineer (CloudVision Back-end) 139413 E4</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>ArcelorMittal Dofasco Inc.</t>
+          <t>Arista Networks</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1617,15 +1617,15 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Hamilton, ON</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Mar 14, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M24" t="inlineStr"/>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Shortlisted  Apply</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1647,11 +1647,11 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>139409</v>
+        <v>139415</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>S22 Software Engineer (EOS) 139409 E4</t>
+          <t>S22 Software Engineer (CloudVision Front-end) 139415 E4</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Shortlisted  Apply</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1696,16 +1696,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>139410</v>
+        <v>141041</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>S22 Software Engineer (SDN Fabric) 139410 E4</t>
+          <t>S22 Hardware Co-op 141041</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Arista Networks</t>
+          <t>Arlo Technologies</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1715,15 +1715,15 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Richmond, BC</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 15, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M26" t="inlineStr"/>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Shortlisted  Apply</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1745,16 +1745,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>139413</v>
+        <v>140521</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>S22 Software Engineer (CloudVision Back-end) 139413 E4</t>
+          <t>S22 Biomedical Engineer 140521 E1</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Arista Networks</t>
+          <t>Aspect Biosystems</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1764,15 +1764,15 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M27" t="inlineStr"/>
@@ -1783,27 +1783,31 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlist  Applied</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Applied via employer's website</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>2022 - Summer</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>139415</v>
+        <v>139851</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>S22 Software Engineer (CloudVision Front-end) 139415 E4</t>
+          <t>S22 Co-op at Atimi 139851 E3</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Arista Networks</t>
+          <t>Atimi Software Inc.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1813,15 +1817,15 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M28" t="inlineStr"/>
@@ -1843,16 +1847,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>141041</v>
+        <v>141018</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>S22 Hardware Co-op 141041</t>
+          <t>S22 CO-OP Engineering 141018</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Arlo Technologies</t>
+          <t>Ausenco Sandwell</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1862,7 +1866,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Richmond, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K29" t="n">
@@ -1870,7 +1874,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Mar 15, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M29" t="inlineStr"/>
@@ -1892,16 +1896,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>140942</v>
+        <v>141052</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>S22 R&amp;amp;D Engineer Intern 140942B E1</t>
+          <t>S22 Front End Developer Intern 141052B</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aruna Revolution</t>
+          <t>Avanade</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1911,15 +1915,15 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>North Vancouver, BC</t>
+          <t>Los Angeles, CA or Seattle, WA</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M30" t="inlineStr"/>
@@ -1941,16 +1945,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>140521</v>
+        <v>140822</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>S22 Biomedical Engineer 140521 E1</t>
+          <t>S22 Data Intern 140822B</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aspect Biosystems</t>
+          <t>Aviva Canada Inc</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1960,7 +1964,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Various, ON</t>
         </is>
       </c>
       <c r="K31" t="n">
@@ -1979,31 +1983,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Shortlist  Applied</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Applied via employer's website</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>2022 - Summer</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>139851</v>
+        <v>140541</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>S22 Co-op at Atimi 139851 E3</t>
+          <t>S22 Software Developer 140541B</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Atimi Software Inc.</t>
+          <t>Ayogo</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2017,11 +2017,11 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 15, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M32" t="inlineStr"/>
@@ -2043,16 +2043,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>141018</v>
+        <v>140656</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>S22 CO-OP Engineering 141018</t>
+          <t>S22 Co-op University Internships (Canada) - Summer Opportunities 2022 140656 E1</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Ausenco Sandwell</t>
+          <t>Baker Hughes</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Leduc, AB</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M33" t="inlineStr"/>
@@ -2092,16 +2092,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>141052</v>
+        <v>140583</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>S22 Front End Developer Intern 141052B</t>
+          <t>S22 Systems Mechanical Engineering 140583 E3</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Avanade</t>
+          <t>Ballard Power Systems Inc.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Los Angeles, CA or Seattle, WA</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M34" t="inlineStr"/>
@@ -2141,16 +2141,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>140822</v>
+        <v>140773</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>S22 Data Intern 140822B</t>
+          <t>S22 Advanced Manufacturing (Stack) 140773 E2</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aviva Canada Inc</t>
+          <t>Ballard Power Systems Inc.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2160,15 +2160,15 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Various, ON</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Mar 14, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M35" t="inlineStr"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Shortlisted  Apply</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -2190,16 +2190,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>140541</v>
+        <v>141068</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>S22 Software Developer 140541B</t>
+          <t>S22 Research Associate Internship 141068B</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Ayogo</t>
+          <t>BASF</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2209,15 +2209,15 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Winkler, MB</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Mar 15, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M36" t="inlineStr"/>
@@ -2239,16 +2239,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>140656</v>
+        <v>140090</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>S22 Co-op University Internships (Canada) - Summer Opportunities 2022 140656 E1</t>
+          <t>S22 Electrical/Automation Intern 140090</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Baker Hughes</t>
+          <t>BBA Inc.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2258,15 +2258,15 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Leduc, AB</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 31, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M37" t="inlineStr"/>
@@ -2288,16 +2288,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>140583</v>
+        <v>140117</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>S22 Systems Mechanical Engineering 140583 E3</t>
+          <t>S22 Mechanical Intern/Trainee (#732) 140117</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Ballard Power Systems Inc.</t>
+          <t>BBA Inc.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2307,15 +2307,15 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 31, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M38" t="inlineStr"/>
@@ -2337,16 +2337,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>140773</v>
+        <v>140947</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>S22 Advanced Manufacturing (Stack) 140773 E2</t>
+          <t>S22 Co-op student - Full-Stack Developer (Hybrid or Remote) 140947</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Ballard Power Systems Inc.</t>
+          <t>BC Cancer Research Centre</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2356,15 +2356,15 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 15, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M39" t="inlineStr"/>
@@ -2386,16 +2386,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>141068</v>
+        <v>140949</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>S22 Research Associate Internship 141068B</t>
+          <t>NEW  S22 Co-op position for advanced digital pathology using CNNs 140949B E1</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>BASF</t>
+          <t>BC Cancer Research Centre</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2405,15 +2405,15 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Winkler, MB</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M40" t="inlineStr"/>
@@ -2435,16 +2435,16 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>140090</v>
+        <v>140945</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>S22 Electrical/Automation Intern 140090</t>
+          <t>S22 Graduate Research Assistant 140945B</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>BBA Inc.</t>
+          <t>BC Centre for Excellence in HIV</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2458,11 +2458,11 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Mar 31, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M41" t="inlineStr"/>
@@ -2484,16 +2484,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>140117</v>
+        <v>141093</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>S22 Mechanical Intern/Trainee (#732) 140117</t>
+          <t>S22 Motion Lab Engineer 141093</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>BBA Inc.</t>
+          <t>BC Children's Hospital</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Mar 31, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M42" t="inlineStr"/>
@@ -2533,16 +2533,16 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>140947</v>
+        <v>141147</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>S22 Co-op student - Full-Stack Developer (Hybrid or Remote) 140947</t>
+          <t>NEW  S22 Climate Change Research Co-op 141147B</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>BC Cancer Research Centre</t>
+          <t>BC Ministry of Agriculture</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2552,15 +2552,15 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Abbotsford, BC</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Mar 15, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M43" t="inlineStr"/>
@@ -2582,16 +2582,16 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>140949</v>
+        <v>141071</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>S22 Co-op position for advanced digital pathology using CNNs 140949B</t>
+          <t>S22 Co-op Student 141071</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>BC Cancer Research Centre</t>
+          <t>BC Research Inc.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2601,15 +2601,15 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Richmond, BC</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M44" t="inlineStr"/>
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>140945</v>
+        <v>141107</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>S22 Graduate Research Assistant 140945B</t>
+          <t>S22 Co-op Graduate Employment 141107</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>BC Centre for Excellence in HIV</t>
+          <t>BES-Building Energy Solutions</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 16, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M45" t="inlineStr"/>
@@ -2669,27 +2669,31 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Applied</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Applied via employer's website</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>2022 - Summer</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>141093</v>
+        <v>140913</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>S22 Motion Lab Engineer 141093</t>
+          <t>S22 Co-op Software Developer (Data) Co-op/PEY 140913 E1</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>BC Children's Hospital</t>
+          <t>BioRender</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2699,15 +2703,15 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Mar 14, 2022  09:00 AM</t>
+          <t>Mar 15, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M46" t="inlineStr"/>
@@ -2729,16 +2733,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>140792</v>
+        <v>140886</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>S22 Co-op People, Plants and Homes (PPH) Coop Student (1) 140792</t>
+          <t>S22 Clinical Research Assistant Co-op 140886 E1</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>BC Housing</t>
+          <t>Black Tusk Research Group Inc. (St. Paul's Hospital)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2748,15 +2752,15 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Coquitlam, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M47" t="inlineStr"/>
@@ -2778,16 +2782,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>140776</v>
+        <v>139416</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>S22 Co-op DIGITAL ASSETS CO-OP 140776</t>
+          <t>S22 BlackBerry Summer 2022 Opportunities 139416 E4</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>BC Ministry of Forests, Lands and Natural Resource Operations</t>
+          <t>BlackBerry</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2797,15 +2801,15 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Kamloops, BC</t>
+          <t>Waterloo, ON</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M48" t="inlineStr"/>
@@ -2827,16 +2831,16 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>141071</v>
+        <v>139777</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>S22 Co-op Student 141071</t>
+          <t>S22 BlackBerry Summer 2022 Opportunities - Various Locations 139777 E3</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>BC Research Inc.</t>
+          <t>BlackBerry</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2846,15 +2850,15 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Richmond, BC</t>
+          <t>Ottawa, ON</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M49" t="inlineStr"/>
@@ -2876,16 +2880,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>141107</v>
+        <v>139785</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>S22 Co-op Graduate Employment 141107</t>
+          <t>S22 BlackBerry Summer 2022 Opportunities - Various Locations 139785 E3</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>BES-Building Energy Solutions</t>
+          <t>BlackBerry</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2895,15 +2899,15 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Waterloo, ON</t>
         </is>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Mar 16, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M50" t="inlineStr"/>
@@ -2925,16 +2929,16 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>140808</v>
+        <v>139806</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>S22 AWS Engineer 140808B E1</t>
+          <t>S22 BlackBerry Summer 2022 Opportunities - Various Locations 139806 E3</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>BioConversion Databank Foundation</t>
+          <t>BlackBerry</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2944,15 +2948,15 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Edmonton, AB</t>
+          <t>Waterloo, ON</t>
         </is>
       </c>
       <c r="K51" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M51" t="inlineStr"/>
@@ -2974,16 +2978,16 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>140809</v>
+        <v>139811</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>S22 Front End Web Engineer 140809B E1</t>
+          <t>S22 BlackBerry Summer Opportunities - Various Locations 139811 E3</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>BioConversion Databank Foundation</t>
+          <t>BlackBerry</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2993,15 +2997,15 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Edmonton, AB</t>
+          <t>Waterloo, ON</t>
         </is>
       </c>
       <c r="K52" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M52" t="inlineStr"/>
@@ -3012,31 +3016,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Shortlisted  Applied</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Applied via employer's website</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
           <t>2022 - Summer</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>140911</v>
+        <v>139816</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>S22 Co-op Full Stack Developer (Growth) 140911</t>
+          <t>S22 BlackBerry Summer 2022 Opportunities - Various Locations 139816 E3</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>BioRender</t>
+          <t>BlackBerry</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3046,15 +3046,15 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Waterloo, ON</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M53" t="inlineStr"/>
@@ -3065,31 +3065,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Shortlisted  Applied</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Applied via employer's website</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
           <t>2022 - Summer</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>140912</v>
+        <v>139817</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>S22 Co-op Full Stack Software Engineer (App Experiences) 140912</t>
+          <t>S22 BlackBerry Summer 2022 Opportunities - Various Locations 139817 E3</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>BioRender</t>
+          <t>BlackBerry</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3099,15 +3095,15 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Waterloo, ON</t>
         </is>
       </c>
       <c r="K54" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M54" t="inlineStr"/>
@@ -3118,31 +3114,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Shortlisted  Applied</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Applied via employer's website</t>
-        </is>
-      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
           <t>2022 - Summer</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>140913</v>
+        <v>140834</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>S22 Co-op Software Developer (Data) Co-op/PEY 140913 E1</t>
+          <t>S22 Software Development Student - 8 Month Summer Term (20211943) 140834</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>BioRender</t>
+          <t>BlackBerry</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3152,15 +3144,15 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Waterloo, ON</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Mar 15, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M55" t="inlineStr"/>
@@ -3182,16 +3174,16 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>140886</v>
+        <v>140933</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>S22 Clinical Research Assistant Co-op 140886 E1</t>
+          <t>S22 Unified Communication Systems Student - 4 or 8 Month Summer Term (20211688) 140933</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Black Tusk Research Group Inc. (St. Paul's Hospital)</t>
+          <t>BlackBerry</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3201,15 +3193,15 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Waterloo, ON</t>
         </is>
       </c>
       <c r="K56" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M56" t="inlineStr"/>
@@ -3231,16 +3223,16 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>139416</v>
+        <v>141008</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>S22 BlackBerry Summer 2022 Opportunities 139416 E4</t>
+          <t>S22 Processing QA Technician (Co-op) 141008B</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>BlackBerry</t>
+          <t>Bonduelle</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3250,15 +3242,15 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Waterloo, ON</t>
+          <t>Ingersoll, ON</t>
         </is>
       </c>
       <c r="K57" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M57" t="inlineStr"/>
@@ -3280,16 +3272,16 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>139777</v>
+        <v>141135</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>S22 BlackBerry Summer 2022 Opportunities - Various Locations 139777 E3</t>
+          <t>S22 Coop Student (4th Year) EOR EIN 141135</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>BlackBerry</t>
+          <t>Bureau Veritas Laboratories (formerly Maxxam Analytics Inc. (changed S19))</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3299,15 +3291,15 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Ottawa, ON</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K58" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M58" t="inlineStr"/>
@@ -3329,16 +3321,16 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>139785</v>
+        <v>141137</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>S22 BlackBerry Summer 2022 Opportunities - Various Locations 139785 E3</t>
+          <t>S22 Coop Student (4th Year) FEDT 141137</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>BlackBerry</t>
+          <t>Bureau Veritas Laboratories (formerly Maxxam Analytics Inc. (changed S19))</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3348,15 +3340,15 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Waterloo, ON</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K59" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
@@ -3378,16 +3370,16 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>139806</v>
+        <v>141138</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>S22 BlackBerry Summer 2022 Opportunities - Various Locations 139806 E3</t>
+          <t>S22 Coop Student (4th Year) FMB 141138</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>BlackBerry</t>
+          <t>Bureau Veritas Laboratories (formerly Maxxam Analytics Inc. (changed S19))</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3397,15 +3389,15 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Waterloo, ON</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K60" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M60" t="inlineStr"/>
@@ -3427,16 +3419,16 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>139811</v>
+        <v>141139</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>S22 BlackBerry Summer Opportunities - Various Locations 139811 E3</t>
+          <t>S22 Coop Student (4th Year) FRE (Tech) 141139</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>BlackBerry</t>
+          <t>Bureau Veritas Laboratories (formerly Maxxam Analytics Inc. (changed S19))</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3446,15 +3438,15 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Waterloo, ON</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K61" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M61" t="inlineStr"/>
@@ -3476,16 +3468,16 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>139816</v>
+        <v>140873</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>S22 BlackBerry Summer 2022 Opportunities - Various Locations 139816 E3</t>
+          <t>S22 Co-op Electrical and Computer Engineering Technology 140873 E1</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>BlackBerry</t>
+          <t>Canadian Circuits Inc.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3495,15 +3487,15 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Waterloo, ON</t>
+          <t>Surrey, BC</t>
         </is>
       </c>
       <c r="K62" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M62" t="inlineStr"/>
@@ -3525,16 +3517,16 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>139817</v>
+        <v>141085</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>S22 BlackBerry Summer 2022 Opportunities - Various Locations 139817 E3</t>
+          <t>S22 Co-op/Practicum Student - General Posting 141085B</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>BlackBerry</t>
+          <t>Canadian Institute for Health Information (CIHI)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3544,15 +3536,15 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Waterloo, ON</t>
+          <t>Ottawa, ON</t>
         </is>
       </c>
       <c r="K63" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M63" t="inlineStr"/>
@@ -3574,16 +3566,16 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>140834</v>
+        <v>141082</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>S22 Software Development Student - 8 Month Summer Term (20211943) 140834</t>
+          <t>S22 Data Governance and Quality 141082B</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>BlackBerry</t>
+          <t>Canadian National Railway (CNR)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3593,15 +3585,15 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Waterloo, ON</t>
+          <t>Montreal, QC</t>
         </is>
       </c>
       <c r="K64" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M64" t="inlineStr"/>
@@ -3623,16 +3615,16 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>140933</v>
+        <v>138985</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>S22 Unified Communication Systems Student - 4 or 8 Month Summer Term (20211688) 140933</t>
+          <t>S22 Various Co-op Opportunities 138985 E3</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>BlackBerry</t>
+          <t>Canadian Natural Resources Ltd</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3642,15 +3634,15 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Waterloo, ON</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="K65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Apr 4, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M65" t="inlineStr"/>
@@ -3672,16 +3664,16 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>141008</v>
+        <v>140533</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>S22 Processing QA Technician (Co-op) 141008B</t>
+          <t>S22 Co-op GIS Technician - Temp, 11months (Variable Locations) 140533 E2</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Bonduelle</t>
+          <t>Canfor</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3691,15 +3683,15 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Ingersoll, ON</t>
+          <t>Various, Canada</t>
         </is>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 15, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M66" t="inlineStr"/>
@@ -3721,16 +3713,16 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>140687</v>
+        <v>140807</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>S22 React Native Developer 140687B E2</t>
+          <t>S22 Quality Control Engineer 140807 E1</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Borrowell</t>
+          <t>Canfor</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3740,15 +3732,15 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Prince George, BC</t>
         </is>
       </c>
       <c r="K67" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M67" t="inlineStr"/>
@@ -3770,16 +3762,16 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>141135</v>
+        <v>140985</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>NEW  S22 Coop Student (4th Year) EOR EIN 141135</t>
+          <t>S22 Process Engineer 22243 140985 E1</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Bureau Veritas Laboratories (formerly Maxxam Analytics Inc. (changed S19))</t>
+          <t>Canfor</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3789,15 +3781,15 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Prince George, BC</t>
         </is>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 18, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M68" t="inlineStr"/>
@@ -3819,16 +3811,16 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>141137</v>
+        <v>140986</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>NEW  S22 Coop Student (4th Year) FEDT 141137</t>
+          <t>S22 Support Analyst 22451 140986 E1</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Bureau Veritas Laboratories (formerly Maxxam Analytics Inc. (changed S19))</t>
+          <t>Canfor</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3838,15 +3830,15 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 18, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M69" t="inlineStr"/>
@@ -3857,7 +3849,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3868,16 +3860,16 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>141138</v>
+        <v>141123</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>NEW  S22 Coop Student (4th Year) FMB 141138</t>
+          <t>S22 Software Engineer 141123B</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Bureau Veritas Laboratories (formerly Maxxam Analytics Inc. (changed S19))</t>
+          <t>Capital One</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3887,15 +3879,15 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M70" t="inlineStr"/>
@@ -3917,16 +3909,16 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>141139</v>
+        <v>141072</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>NEW  S22 Coop Student (4th Year) FRE (Tech) 141139</t>
+          <t>S22 Co-op Watershed Operator (1) 141072</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Bureau Veritas Laboratories (formerly Maxxam Analytics Inc. (changed S19))</t>
+          <t>Capital Regional District</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3936,15 +3928,15 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Victoria, BC</t>
         </is>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 21, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M71" t="inlineStr"/>
@@ -3966,16 +3958,16 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>139945</v>
+        <v>140902</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>S22 Software Engineer Intern 139945B E1</t>
+          <t>S22 Software Developer 140902B E1</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Calabrio</t>
+          <t>Caranci Consulting</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3985,15 +3977,15 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Barrie, ON</t>
         </is>
       </c>
       <c r="K72" t="n">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M72" t="inlineStr"/>
@@ -4015,16 +4007,16 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>140873</v>
+        <v>141047</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>S22 Co-op Electrical and Computer Engineering Technology 140873 E1</t>
+          <t>S22 Data Mapping Co-op 141047B</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Canadian Circuits Inc.</t>
+          <t>CARFAX Canada</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4034,7 +4026,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Surrey, BC</t>
+          <t>London, ON</t>
         </is>
       </c>
       <c r="K73" t="n">
@@ -4042,7 +4034,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M73" t="inlineStr"/>
@@ -4064,16 +4056,16 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>141085</v>
+        <v>140604</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>S22 Co-op/Practicum Student - General Posting 141085B</t>
+          <t>S22 Co-op Engineering Co-op 2022 140604 E1</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Canadian Institute for Health Information (CIHI)</t>
+          <t>Cargill Limited</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4083,7 +4075,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Ottawa, ON</t>
+          <t>Surrey, BC</t>
         </is>
       </c>
       <c r="K74" t="n">
@@ -4091,7 +4083,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M74" t="inlineStr"/>
@@ -4113,16 +4105,16 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>141082</v>
+        <v>140815</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>S22 Data Governance and Quality 141082B</t>
+          <t>S22 Operations Management Intern 140815B</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Canadian National Railway (CNR)</t>
+          <t>Cargill Limited</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4132,15 +4124,15 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Montreal, QC</t>
+          <t>Vermillion, AB</t>
         </is>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M75" t="inlineStr"/>
@@ -4162,16 +4154,16 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>138985</v>
+        <v>140920</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>S22 Various Co-op Opportunities 138985 E3</t>
+          <t>S22 IT Security Intern 140920B E1</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Canadian Natural Resources Ltd</t>
+          <t>CDW Canada Corp.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4181,15 +4173,15 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Various</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="K76" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Apr 4, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M76" t="inlineStr"/>
@@ -4211,16 +4203,16 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>140533</v>
+        <v>140906</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>S22 Co-op GIS Technician - Temp, 11months (Variable Locations) 140533 E2</t>
+          <t>S22 Statistical Programmer 140906B</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Canfor</t>
+          <t>Centre for Clinical Epidemiology and Evaluation</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4230,15 +4222,15 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Various, Canada</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Mar 15, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M77" t="inlineStr"/>
@@ -4260,16 +4252,16 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>140807</v>
+        <v>140742</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>S22 Quality Control Engineer 140807 E1</t>
+          <t>S22 Cloud Infrastructure Engineering Student 140742B E2</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Canfor</t>
+          <t>Centre of Excellence in Next Generation Networks (CENGN)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4279,15 +4271,15 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Prince George, BC</t>
+          <t>Ottawa, ON</t>
         </is>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M78" t="inlineStr"/>
@@ -4309,16 +4301,16 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>140985</v>
+        <v>140404</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>S22 Process Engineer 22243 140985 E1</t>
+          <t>S22 Software Development Engineer - CHC 140404 E2</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Canfor</t>
+          <t>Change Healthcare</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4328,15 +4320,15 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Prince George, BC</t>
+          <t>Richmond, BC</t>
         </is>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Mar 18, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M79" t="inlineStr"/>
@@ -4358,16 +4350,16 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>140986</v>
+        <v>140851</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>S22 Support Analyst 22451 140986 E1</t>
+          <t>S22 Various Opportunities 140851B E1</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Canfor</t>
+          <t>Ciena Canada</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4377,15 +4369,15 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Various, ON</t>
         </is>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Mar 18, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M80" t="inlineStr"/>
@@ -4396,7 +4388,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Shortlisted  Apply</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -4407,16 +4399,16 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>141123</v>
+        <v>140957</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>S22 Software Engineer 141123B</t>
+          <t>S22 Software Engineer (Intern) Canada 140957 E1</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Capital One</t>
+          <t>Cisco Systems Co.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4426,15 +4418,15 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Ottawa, ON</t>
         </is>
       </c>
       <c r="K81" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 17, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M81" t="inlineStr"/>
@@ -4456,16 +4448,16 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>141072</v>
+        <v>137685</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>S22 Co-op Watershed Operator (1) 141072</t>
+          <t>S22 Summer Software Development Technology Analyst 137685 E8</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Capital Regional District</t>
+          <t>Citi Canada ICG Technology</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4475,15 +4467,15 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Victoria, BC</t>
+          <t>Mississauga, ON</t>
         </is>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Mar 21, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M82" t="inlineStr"/>
@@ -4505,16 +4497,16 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>140902</v>
+        <v>140960</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>S22 Software Developer 140902B E1</t>
+          <t>S22 Co-op 42997 Network Analyst Work Experience Student (Open City and Technology) 140960</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Caranci Consulting</t>
+          <t>City of Edmonton</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4524,15 +4516,15 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Barrie, ON</t>
+          <t>Edmonton, AB</t>
         </is>
       </c>
       <c r="K83" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M83" t="inlineStr"/>
@@ -4554,16 +4546,16 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>141047</v>
+        <v>141101</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>S22 Data Mapping Co-op 141047B</t>
+          <t>S22 Co-op SNAP Urban Forest Outreach Team Leader 141101</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>CARFAX Canada</t>
+          <t>City of Surrey</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4573,7 +4565,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>London, ON</t>
+          <t>Surrey, BC</t>
         </is>
       </c>
       <c r="K84" t="n">
@@ -4581,7 +4573,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 25, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M84" t="inlineStr"/>
@@ -4592,7 +4584,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -4603,16 +4595,16 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>140604</v>
+        <v>141110</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>S22 Co-op Engineering Co-op 2022 140604 E1</t>
+          <t>S22 Machine Learning Engineer Co-op 141110B</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Cargill Limited</t>
+          <t>Clarius Mobile Health Corporation</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4622,7 +4614,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Surrey, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K85" t="n">
@@ -4652,16 +4644,16 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>140815</v>
+        <v>140885</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>S22 Operations Management Intern 140815B</t>
+          <t>S22 Operations Specialist Co-op 140885B</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cargill Limited</t>
+          <t>CLEAResult</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4671,15 +4663,15 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Vermillion, AB</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M86" t="inlineStr"/>
@@ -4701,16 +4693,16 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>140920</v>
+        <v>141054</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>S22 IT Security Intern 140920B E1</t>
+          <t>S22 IT Intern - Cybersecurity Analyst 141054B</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>CDW Canada Corp.</t>
+          <t>Cogeco Connexion</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4720,7 +4712,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Montreal, QC</t>
         </is>
       </c>
       <c r="K87" t="n">
@@ -4728,7 +4720,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M87" t="inlineStr"/>
@@ -4750,16 +4742,16 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>140906</v>
+        <v>141094</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>S22 Statistical Programmer 140906B</t>
+          <t>S22 Summer Co-op 141094B</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Centre for Clinical Epidemiology and Evaluation</t>
+          <t>Conifer Homewares</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4773,11 +4765,11 @@
         </is>
       </c>
       <c r="K88" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M88" t="inlineStr"/>
@@ -4799,16 +4791,16 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>140742</v>
+        <v>140843</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>S22 Cloud Infrastructure Engineering Student 140742B E2</t>
+          <t>S22 NLU Intern 140843B E1</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Centre of Excellence in Next Generation Networks (CENGN)</t>
+          <t>conversationHEALTH</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4818,7 +4810,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Ottawa, ON</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="K89" t="n">
@@ -4848,16 +4840,16 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>140404</v>
+        <v>141109</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>S22 Software Development Engineer - CHC 140404 E2</t>
+          <t>NEW  S22 Client Release Associate Co-Op 141109</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Change Healthcare</t>
+          <t>Copperleaf Technologies Inc.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4867,15 +4859,15 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Richmond, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K90" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M90" t="inlineStr"/>
@@ -4886,7 +4878,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4897,16 +4889,16 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>140965</v>
+        <v>140696</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>S22 Junior Developer Co-op 140965B</t>
+          <t>S22 Automation Engineer 140696B E1</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Checkfront</t>
+          <t>Countable Web Productions</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -4916,15 +4908,15 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Victoria, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K91" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M91" t="inlineStr"/>
@@ -4946,16 +4938,16 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>140851</v>
+        <v>141119</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>S22 Various Opportunities 140851B E1</t>
+          <t>S22 Co-op Utilities Labourer 141119</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Ciena Canada</t>
+          <t>Cowichan Valley Regional District (CVRD)</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4965,15 +4957,15 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Various, ON</t>
+          <t>Duncan, BC</t>
         </is>
       </c>
       <c r="K92" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 24, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M92" t="inlineStr"/>
@@ -4995,16 +4987,16 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>140957</v>
+        <v>140866</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>S22 Software Engineer (Intern) Canada 140957 E1</t>
+          <t>S22 Operations Intern 140866B E1</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Cisco Systems Co.</t>
+          <t>Deebee's Organics</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5014,15 +5006,15 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Ottawa, ON</t>
+          <t>Victoria, BC</t>
         </is>
       </c>
       <c r="K93" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Mar 17, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M93" t="inlineStr"/>
@@ -5044,16 +5036,16 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>137685</v>
+        <v>141019</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>S22 Summer Software Development Technology Analyst 137685 E8</t>
+          <t>S22 Co-op Coordinator, Construction Services - Indigenous Student Employment Opportunity-4463 141019</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Citi Canada ICG Technology</t>
+          <t>Defence Construction Canada</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5063,15 +5055,15 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Mississauga, ON</t>
+          <t>Various, AB and BC</t>
         </is>
       </c>
       <c r="K94" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>May 31, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M94" t="inlineStr"/>
@@ -5093,16 +5085,16 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>140662</v>
+        <v>141070</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>S22 Co-op Environmental Co-Op (Solid Waste) 140662</t>
+          <t>S22 Co-op Coordinator, Construction Services - Indigenous Student Employment Opportunity 141070</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>City of Abbotsford</t>
+          <t>Defence Construction Canada</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5112,15 +5104,15 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Abbotsford, BC</t>
+          <t>Various, Western Canada</t>
         </is>
       </c>
       <c r="K95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 31, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M95" t="inlineStr"/>
@@ -5142,16 +5134,16 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>140960</v>
+        <v>140856</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>S22 Co-op 42997 Network Analyst Work Experience Student (Open City and Technology) 140960</t>
+          <t>S22 Big Data Scientist 140856B E1</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>City of Edmonton</t>
+          <t>Definity Financial Corporation</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5161,15 +5153,15 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Edmonton, AB</t>
+          <t>Waterloo, ON</t>
         </is>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M96" t="inlineStr"/>
@@ -5180,27 +5172,31 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Applied</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Applied via employer's website</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>2022 - Summer</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>141101</v>
+        <v>139157</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>S22 Co-op SNAP Urban Forest Outreach Team Leader 141101</t>
+          <t>S22 Software Development Internship (Vancouver; Req: R010669) - May 2022 139157 E6</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>City of Surrey</t>
+          <t>DemonWare Inc.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5210,15 +5206,15 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Surrey, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Mar 25, 2022  09:00 AM</t>
+          <t>Mar 16, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M97" t="inlineStr"/>
@@ -5229,7 +5225,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Shortlisted  Apply</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -5240,16 +5236,16 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>141110</v>
+        <v>141156</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>S22 Machine Learning Engineer Co-op 141110B</t>
+          <t>NEW  S22 Media and Public Relations Team Leader 141156</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Clarius Mobile Health Corporation</t>
+          <t>Dillon Consulting Limited</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5259,7 +5255,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Surrey, BC</t>
         </is>
       </c>
       <c r="K98" t="n">
@@ -5267,7 +5263,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 23, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M98" t="inlineStr"/>
@@ -5289,16 +5285,16 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>140916</v>
+        <v>141158</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>S22 Cloud Provisioning &amp;amp; QA Co-op 140916B E1</t>
+          <t>NEW  S22 Community Education Team Leader 141158</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>ClearDent</t>
+          <t>Dillon Consulting Limited</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5308,15 +5304,15 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Surrey, BC</t>
         </is>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 23, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M99" t="inlineStr"/>
@@ -5338,16 +5334,16 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>140885</v>
+        <v>141159</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>S22 Operations Specialist Co-op 140885B</t>
+          <t>NEW  S22 Watershed Enhancement Team Leader 141159</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>CLEAResult</t>
+          <t>Dillon Consulting Limited</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5357,15 +5353,15 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Surrey, BC</t>
         </is>
       </c>
       <c r="K100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 23, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M100" t="inlineStr"/>
@@ -5387,16 +5383,16 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>141054</v>
+        <v>141062</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>S22 IT Intern - Cybersecurity Analyst 141054B</t>
+          <t>S22 Co-op ENVIRONMENTAL STUDENT 141062</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Cogeco Connexion</t>
+          <t>DIstrict of Mission</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5406,7 +5402,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Montreal, QC</t>
+          <t>Mission, BC</t>
         </is>
       </c>
       <c r="K101" t="n">
@@ -5414,7 +5410,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 21, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M101" t="inlineStr"/>
@@ -5436,16 +5432,16 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>141094</v>
+        <v>140999</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>S22 Summer Co-op 141094B</t>
+          <t>S22 Environmental Assistant - Temporary Full-Time Summer Student 140999B</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Conifer Homewares</t>
+          <t>District of North Vancouver</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5455,15 +5451,15 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>North Vancouver, BC</t>
         </is>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M102" t="inlineStr"/>
@@ -5485,16 +5481,16 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>140843</v>
+        <v>140407</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>S22 NLU Intern 140843B E1</t>
+          <t>S22 Field Biologist/Technician 140407B E2</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>conversationHEALTH</t>
+          <t>Duka Environmental Services Ltd.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -5504,11 +5500,11 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Victoria, Kelowna, Merrit/Kamloops, Prince George, BC</t>
         </is>
       </c>
       <c r="K103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -5534,16 +5530,16 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>140696</v>
+        <v>140024</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>S22 Automation Engineer 140696B E1</t>
+          <t>S22 Co-op Software Engineer (LiveOps) 140024 E3</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Countable Web Productions</t>
+          <t>East Side Games, Inc.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -5557,11 +5553,11 @@
         </is>
       </c>
       <c r="K104" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M104" t="inlineStr"/>
@@ -5583,16 +5579,16 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>140582</v>
+        <v>140607</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>S22 IT Engineer 140582B E2</t>
+          <t>S22 Co-op Intern - Power Systems Engineering Representative (8/12-month) 140607</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Coupon Magazine</t>
+          <t>Eaton Canada</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -5602,15 +5598,15 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Richmond, BC</t>
+          <t>Delta, BC</t>
         </is>
       </c>
       <c r="K105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 30, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M105" t="inlineStr"/>
@@ -5632,16 +5628,16 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>141119</v>
+        <v>140928</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>S22 Co-op Utilities Labourer 141119</t>
+          <t>S22 Co-op Embedded Engineer 140928 E1</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Cowichan Valley Regional District (CVRD)</t>
+          <t>Ecoation Innovative Solutions Inc. (Crop Sense)</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -5651,15 +5647,15 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Duncan, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Mar 24, 2022  09:00 AM</t>
+          <t>Mar 16, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M106" t="inlineStr"/>
@@ -5681,16 +5677,16 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>140866</v>
+        <v>140929</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>S22 Operations Intern 140866B E1</t>
+          <t>S22 Co-op Data Scientist 140929 E1</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Deebee's Organics</t>
+          <t>Ecoation Innovative Solutions Inc. (Crop Sense)</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -5700,15 +5696,15 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Victoria, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K107" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 16, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M107" t="inlineStr"/>
@@ -5730,16 +5726,16 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>140688</v>
+        <v>140930</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>S22 Software Engineering Intern - Data Visualization 140688B E2</t>
+          <t>S22 Co-op Software Release and Test Engineer (COOP) 140930 E1</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Deep Genomics</t>
+          <t>Ecoation Innovative Solutions Inc. (Crop Sense)</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -5749,15 +5745,15 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K108" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 16, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M108" t="inlineStr"/>
@@ -5779,16 +5775,16 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>140689</v>
+        <v>140651</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>S22 Software Engineering Intern - Data Engineering 140689B E2</t>
+          <t>S22 Engineering Co-op 140651B E3</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Deep Genomics</t>
+          <t>Ekona Power</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -5798,15 +5794,15 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K109" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M109" t="inlineStr"/>
@@ -5828,16 +5824,16 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>141019</v>
+        <v>139959</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>S22 Co-op Coordinator, Construction Services - Indigenous Student Employment Opportunity-4463 141019</t>
+          <t>S22 Summer 2022 co-op job opportunities Vancouver, BC 139959 E1</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Defence Construction Canada</t>
+          <t>Electronic Arts (EA Canada) Inc.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -5847,15 +5843,15 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Various, AB and BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>May 31, 2022  09:00 AM</t>
+          <t>Mar 16, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M110" t="inlineStr"/>
@@ -5877,16 +5873,16 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>141070</v>
+        <v>139813</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>S22 Co-op Coordinator, Construction Services - Indigenous Student Employment Opportunity 141070</t>
+          <t>S22 Co-op Enbridge IT Co-op Various Postings 139813 E2</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Defence Construction Canada</t>
+          <t>Enbridge</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -5896,15 +5892,15 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Various, Western Canada</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Mar 31, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M111" t="inlineStr"/>
@@ -5926,16 +5922,16 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>140856</v>
+        <v>140261</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>S22 Big Data Scientist 140856B E1</t>
+          <t>S22 Co-op Engineering (Enterprise Asset Management) Co-op Student 140261 E3</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Definity Financial Corporation</t>
+          <t>Enbridge</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -5945,15 +5941,15 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Waterloo, ON</t>
+          <t>Various, Canada</t>
         </is>
       </c>
       <c r="K112" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M112" t="inlineStr"/>
@@ -5964,31 +5960,27 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Shortlisted  Applied</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Applied via employer's website</t>
-        </is>
-      </c>
+      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
           <t>2022 - Summer</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>139157</v>
+        <v>141035</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>S22 Software Development Internship (Vancouver; Req: R010669) - May 2022 139157 E6</t>
+          <t>S22 Co-op Transmission Integrity - Summer Student 141035</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>DemonWare Inc.</t>
+          <t>Enbridge</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -5998,15 +5990,15 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Chatham, ON</t>
         </is>
       </c>
       <c r="K113" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Mar 16, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M113" t="inlineStr"/>
@@ -6028,16 +6020,16 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>140176</v>
+        <v>141121</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>S22 Engineering Co-op Student 140176B E1</t>
+          <t>S22 Program Project Delivery (Technical Information Systems) Co-op Student 141121</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Digital Lab - BC Children's Hospital</t>
+          <t>Enbridge</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6047,15 +6039,15 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>North York, ON</t>
         </is>
       </c>
       <c r="K114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 16, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M114" t="inlineStr"/>
@@ -6077,16 +6069,16 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>141062</v>
+        <v>140870</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>S22 Co-op ENVIRONMENTAL STUDENT 141062</t>
+          <t>S22 Compliance Co-op 140870</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>DIstrict of Mission</t>
+          <t>EnerSys Analytics Inc.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6096,7 +6088,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Mission, BC</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K115" t="n">
@@ -6104,7 +6096,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Mar 21, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M115" t="inlineStr"/>
@@ -6126,16 +6118,16 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>140999</v>
+        <v>140642</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>S22 Environmental Assistant - Temporary Full-Time Summer Student 140999B</t>
+          <t>S22 Co-op Work Term Student 140642B E1</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>District of North Vancouver</t>
+          <t>Environment and Climate Change Canada</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6145,15 +6137,15 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>North Vancouver, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K116" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M116" t="inlineStr"/>
@@ -6175,16 +6167,16 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>140407</v>
+        <v>141059</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>S22 Field Biologist/Technician 140407B E2</t>
+          <t>S22 Junior Regulatory Development Officer 141059</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Duka Environmental Services Ltd.</t>
+          <t>Environment and Climate Change Canada</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6194,15 +6186,15 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Victoria, Kelowna, Merrit/Kamloops, Prince George, BC</t>
+          <t>Gatineau, QC</t>
         </is>
       </c>
       <c r="K117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M117" t="inlineStr"/>
@@ -6213,7 +6205,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Shortlisted  Apply</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -6224,16 +6216,16 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>140024</v>
+        <v>140831</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>S22 Co-op Software Engineer (LiveOps) 140024 E3</t>
+          <t>NEW  S22 Communications Technician Co-op Student 140831B E2</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>East Side Games, Inc.</t>
+          <t>Environment Canada - Canadian Wildlife Service</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6243,15 +6235,15 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Delta, BC</t>
         </is>
       </c>
       <c r="K118" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M118" t="inlineStr"/>
@@ -6273,16 +6265,16 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>140607</v>
+        <v>140392</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>S22 Co-op Intern - Power Systems Engineering Representative (8/12-month) 140607</t>
+          <t>S22 Co-op Environmental, Health and Safety Co-op Student 140392 E2</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Eaton Canada</t>
+          <t>ERM</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6292,15 +6284,15 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Delta, BC</t>
+          <t>Various, Canada</t>
         </is>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Mar 30, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M119" t="inlineStr"/>
@@ -6322,16 +6314,16 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>140928</v>
+        <v>140914</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>S22 Co-op Embedded Engineer 140928 E1</t>
+          <t>S22 Co-op EY Spring Recruitment positions 140914</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Ecoation Innovative Solutions Inc. (Crop Sense)</t>
+          <t>Ernst &amp; Young (EY)</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6341,7 +6333,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Various, Canada</t>
         </is>
       </c>
       <c r="K120" t="n">
@@ -6349,7 +6341,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Mar 16, 2022  09:00 AM</t>
+          <t>Apr 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M120" t="inlineStr"/>
@@ -6371,16 +6363,16 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>140929</v>
+        <v>141128</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>S22 Co-op Data Scientist 140929 E1</t>
+          <t>S22 Project Engineer Student 141128B</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Ecoation Innovative Solutions Inc. (Crop Sense)</t>
+          <t>Evolugen</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6390,15 +6382,15 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Powell River, BC</t>
         </is>
       </c>
       <c r="K121" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Mar 16, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M121" t="inlineStr"/>
@@ -6420,16 +6412,16 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>140930</v>
+        <v>140457</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>S22 Co-op Software Release and Test Engineer (COOP) 140930 E1</t>
+          <t>S22 Operational Excellence Student (Calgary) 140457 E2</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Ecoation Innovative Solutions Inc. (Crop Sense)</t>
+          <t>Evraz Inc</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6439,15 +6431,15 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Calgary, AB</t>
         </is>
       </c>
       <c r="K122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Mar 16, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M122" t="inlineStr"/>
@@ -6469,16 +6461,16 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>140651</v>
+        <v>140458</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>S22 Engineering Co-op 140651B E3</t>
+          <t>S22 Operational Excellence Student (Regina) 140458 E2</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Ekona Power</t>
+          <t>Evraz Inc</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -6488,15 +6480,15 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Regina, SK</t>
         </is>
       </c>
       <c r="K123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M123" t="inlineStr"/>
@@ -6518,16 +6510,16 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>139959</v>
+        <v>139987</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>S22 Summer 2022 co-op job opportunities Vancouver, BC 139959 E1</t>
+          <t>S22 Software Developer (Front End) 139987 E3</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Electronic Arts (EA Canada) Inc.</t>
+          <t>FI.SPAN</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -6541,11 +6533,11 @@
         </is>
       </c>
       <c r="K124" t="n">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Mar 16, 2022  09:00 AM</t>
+          <t>Mar 17, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M124" t="inlineStr"/>
@@ -6556,7 +6548,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -6567,16 +6559,16 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>140241</v>
+        <v>141153</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>S22 Co-op Co-op Landscape Designer, Developer &amp;amp; Farmer 140241</t>
+          <t>NEW  S22 Software Developer (ERP Team) Co-op 141153</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Empress Acres Farm</t>
+          <t>FI.SPAN</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -6586,15 +6578,15 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Cedar, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M125" t="inlineStr"/>
@@ -6616,16 +6608,16 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>139813</v>
+        <v>140922</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>S22 Co-op Enbridge IT Co-op Various Postings 139813 E2</t>
+          <t>S22 Intern, Canadian Equities Small Cap 140922B E1</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Enbridge</t>
+          <t>Fiera Capital</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -6635,11 +6627,11 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Various</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="K126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -6665,16 +6657,16 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>140261</v>
+        <v>140739</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>S22 Co-op Engineering (Enterprise Asset Management) Co-op Student 140261 E3</t>
+          <t>S22 Co-op Control System Co op 140739 E2</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Enbridge</t>
+          <t>Fluor Corporation</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -6684,7 +6676,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Various, Canada</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K127" t="n">
@@ -6692,7 +6684,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M127" t="inlineStr"/>
@@ -6714,16 +6706,16 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>141035</v>
+        <v>141074</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>S22 Co-op Transmission Integrity - Summer Student 141035</t>
+          <t>S22 Various Engineering Discipline Co-op 141074</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Enbridge</t>
+          <t>Fluor Corporation</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6733,7 +6725,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Chatham, ON</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K128" t="n">
@@ -6741,7 +6733,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Mar 14, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M128" t="inlineStr"/>
@@ -6763,16 +6755,16 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>141121</v>
+        <v>140381</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>S22 Program Project Delivery (Technical Information Systems) Co-op Student 141121</t>
+          <t>S22 Engineering Co-op, Mechanical 140381 E3</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Enbridge</t>
+          <t>FortisBC</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -6782,7 +6774,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>North York, ON</t>
+          <t>Surrey, BC</t>
         </is>
       </c>
       <c r="K129" t="n">
@@ -6790,7 +6782,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Mar 16, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M129" t="inlineStr"/>
@@ -6812,16 +6804,16 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>140870</v>
+        <v>140382</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>S22 Compliance Co-op 140870</t>
+          <t>S22 Engineering Co-op, System Integrity 140382 E3</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>EnerSys Analytics Inc.</t>
+          <t>FortisBC</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -6831,7 +6823,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Surrey, BC</t>
         </is>
       </c>
       <c r="K130" t="n">
@@ -6839,7 +6831,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M130" t="inlineStr"/>
@@ -6861,16 +6853,16 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>140642</v>
+        <v>140915</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>S22 Co-op Work Term Student 140642B E1</t>
+          <t>S22 Engineering Co-op 140915B E1</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Environment and Climate Change Canada</t>
+          <t>FTXT Energy Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -6880,15 +6872,15 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>North Vancouver, BC</t>
         </is>
       </c>
       <c r="K131" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M131" t="inlineStr"/>
@@ -6910,16 +6902,16 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>141059</v>
+        <v>140509</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>S22 Junior Regulatory Development Officer 141059</t>
+          <t>S22 Co-op Process Engineer Co-op 140509 E2</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Environment and Climate Change Canada</t>
+          <t>Garibaldi Glass Industries Inc.</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -6929,15 +6921,15 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Gatineau, QC</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M132" t="inlineStr"/>
@@ -6959,16 +6951,16 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>140831</v>
+        <v>140740</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>S22 Communications Technician Co-op Student 140831B E1</t>
+          <t>NEW  S22 Embedded Linux Engineer Co-op 140740B E1</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Environment Canada - Canadian Wildlife Service</t>
+          <t>Generac Power Systems</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -6978,15 +6970,15 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Delta, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K133" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M133" t="inlineStr"/>
@@ -6997,7 +6989,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -7008,16 +7000,16 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>140392</v>
+        <v>140741</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>S22 Co-op Environmental, Health and Safety Co-op Student 140392 E2</t>
+          <t>NEW  S22 Embedded Systems Test Automation Engineer Co-op 140741B E1</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>ERM</t>
+          <t>Generac Power Systems</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7027,15 +7019,15 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Various, Canada</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M134" t="inlineStr"/>
@@ -7057,16 +7049,16 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>140914</v>
+        <v>140744</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>S22 Co-op EY Spring Recruitment positions 140914</t>
+          <t>S22 Co-op Co-op - Information Technology Student - 4 Months - Summer 140744 E1</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Ernst &amp; Young (EY)</t>
+          <t>General Dynamics Canada</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7076,15 +7068,15 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Various, Canada</t>
+          <t>Ottawa, ON</t>
         </is>
       </c>
       <c r="K135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Apr 11, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M135" t="inlineStr"/>
@@ -7095,7 +7087,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -7106,16 +7098,16 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>140493</v>
+        <v>140838</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>S22 Software Engineering Intern 140493B E3</t>
+          <t>S22 Java Developer, Big Data Co-op 140838 E1</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>eSight Eyeware</t>
+          <t>Global Relay Communications Inc.</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7125,15 +7117,15 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K136" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 18, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M136" t="inlineStr"/>
@@ -7144,7 +7136,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -7155,16 +7147,16 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>140494</v>
+        <v>140841</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>S22 UX/Product Intern 140494B E3</t>
+          <t>S22 Software Development Engineer in Test (SDET) Co-op 140841 E1</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>eSight Eyeware</t>
+          <t>Global Relay Communications Inc.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7174,15 +7166,15 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K137" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 18, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M137" t="inlineStr"/>
@@ -7193,7 +7185,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -7204,16 +7196,16 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>141128</v>
+        <v>141096</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>S22 Project Engineer Student 141128B</t>
+          <t>S22 Software Developer 141096B</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Evolugen</t>
+          <t>GlüxKind</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -7223,15 +7215,15 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Powell River, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M138" t="inlineStr"/>
@@ -7253,16 +7245,16 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>140858</v>
+        <v>141097</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>S22 Co-op Lab Assistant, Quality Control 140858</t>
+          <t>S22 Electrical Engineer 141097B</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Evonik Canada Inc.</t>
+          <t>GlüxKind</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -7276,11 +7268,11 @@
         </is>
       </c>
       <c r="K139" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M139" t="inlineStr"/>
@@ -7302,16 +7294,16 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>140457</v>
+        <v>141090</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>S22 Operational Excellence Student (Calgary) 140457 E2</t>
+          <t>S22 Geographic Information System Co-op 141090B</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Evraz Inc</t>
+          <t>Government of Nova Scotia</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7321,15 +7313,15 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Calgary, AB</t>
+          <t>Various, NS</t>
         </is>
       </c>
       <c r="K140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M140" t="inlineStr"/>
@@ -7351,16 +7343,16 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>140458</v>
+        <v>141030</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>S22 Operational Excellence Student (Regina) 140458 E2</t>
+          <t>S22 Co-op Application Engineering Co-op Student 141030</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Evraz Inc</t>
+          <t>Greenlight Innovation</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -7370,7 +7362,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Regina, SK</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K141" t="n">
@@ -7400,16 +7392,16 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>139987</v>
+        <v>140925</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>S22 Software Developer (Front End) 139987 E3</t>
+          <t>S22 Applications Specialist Intern 140925B E1</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>FI.SPAN</t>
+          <t>Harris Computer</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -7419,15 +7411,15 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="K142" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Mar 17, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M142" t="inlineStr"/>
@@ -7449,16 +7441,16 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>140922</v>
+        <v>140690</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>S22 Intern, Canadian Equities Small Cap 140922B E1</t>
+          <t>S22 Project Controller 140690 E1</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Fiera Capital</t>
+          <t>Hatch Ltd.</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -7468,11 +7460,11 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -7498,21 +7490,21 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>141048</v>
+        <v>140879</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>S22 Plant Science Co-op Student BC 141048</t>
+          <t>S22 Student Geological Engineering / Geoscience-55163 140879 E1</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Flash Forest</t>
+          <t>Hatch Ltd.</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Head office</t>
+          <t>Head Office</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7525,7 +7517,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 16, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M144" t="inlineStr"/>
@@ -7547,16 +7539,16 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>140739</v>
+        <v>141017</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>S22 Co-op Control System Co op 140739 E2</t>
+          <t>S22 Co-op Mechanical co-op student 141017</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Fluor Corporation</t>
+          <t>Hatch Ltd.</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -7574,7 +7566,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 25, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M145" t="inlineStr"/>
@@ -7596,16 +7588,16 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>141074</v>
+        <v>141021</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>S22 Various Engineering Discipline Co-op 141074</t>
+          <t>S22 Co-op Service Desk Intern - Vancouver (Summer 2022) 141021</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Fluor Corporation</t>
+          <t>Hatch Ltd.</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7623,7 +7615,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 28, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M146" t="inlineStr"/>
@@ -7645,16 +7637,16 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>140381</v>
+        <v>140466</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>S22 Engineering Co-op, Mechanical 140381 E3</t>
+          <t>S22 Transportation Engineer 140466 E2</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>FortisBC</t>
+          <t>HDR Inc</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -7664,7 +7656,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Surrey, BC</t>
+          <t>Richmond Hill, ON</t>
         </is>
       </c>
       <c r="K147" t="n">
@@ -7672,7 +7664,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M147" t="inlineStr"/>
@@ -7694,16 +7686,16 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>140382</v>
+        <v>140899</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>S22 Engineering Co-op, System Integrity 140382 E3</t>
+          <t>S22 Jr. Electrical Engineer 140899B</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>FortisBC</t>
+          <t>Hevvy Pumps</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -7713,7 +7705,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Surrey, BC</t>
+          <t>Port Coquitlam, BC</t>
         </is>
       </c>
       <c r="K148" t="n">
@@ -7721,7 +7713,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M148" t="inlineStr"/>
@@ -7743,16 +7735,16 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>140667</v>
+        <v>140953</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>S22 Co-op Outreach Instructor - Seasonal Opportunities 140667 E2</t>
+          <t>S22 Field Service Engineer Intern 140953 E1</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Freshwater Fisheries Society of BC</t>
+          <t>Honeywell ASCa Inc.</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -7762,15 +7754,15 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Various, BC</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 17, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M149" t="inlineStr"/>
@@ -7792,16 +7784,16 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>140915</v>
+        <v>141032</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>S22 Engineering Co-op 140915B E1</t>
+          <t>S22 Engineering co-op (MICe) 141032B</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>FTXT Energy Technology Co., Ltd.</t>
+          <t>Hospital for Sick Children (SickKids)</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -7811,7 +7803,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>North Vancouver, BC</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="K150" t="n">
@@ -7819,7 +7811,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M150" t="inlineStr"/>
@@ -7830,7 +7822,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -7841,16 +7833,16 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>140509</v>
+        <v>140819</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>S22 Co-op Process Engineer Co-op 140509 E2</t>
+          <t>S22 Intern/Co-op - Cloud Full Stack Developer 140819 E1</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Garibaldi Glass Industries Inc.</t>
+          <t>HSBC Bank Canada</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -7860,15 +7852,15 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K151" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Mar 14, 2022  09:00 AM</t>
+          <t>Mar 17, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M151" t="inlineStr"/>
@@ -7890,16 +7882,16 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>140744</v>
+        <v>141058</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>S22 Co-op Co-op - Information Technology Student - 4 Months - Summer 140744 E1</t>
+          <t>S22 Various Opportunities 141058B</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>General Dynamics Canada</t>
+          <t>iA Financial Group (Industrial Alliance)</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -7909,15 +7901,15 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Ottawa, ON</t>
+          <t>Toronto, ON or Vancouver, BC</t>
         </is>
       </c>
       <c r="K152" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Apr 15, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M152" t="inlineStr"/>
@@ -7928,7 +7920,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Shortlisted  Apply</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -7939,16 +7931,16 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>140838</v>
+        <v>140064</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>S22 Java Developer, Big Data Co-op 140838 E1</t>
+          <t>S22 DevOps Developer Intern (16 months) 140064 E2</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Global Relay Communications Inc.</t>
+          <t>IBM Canada Ltd.</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -7958,15 +7950,15 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Markham, ON</t>
         </is>
       </c>
       <c r="K153" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Mar 18, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M153" t="inlineStr"/>
@@ -7977,7 +7969,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Shortlisted  Apply</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -7988,16 +7980,16 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>140841</v>
+        <v>139912</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>S22 Software Development Engineer in Test (SDET) Co-op 140841 E1</t>
+          <t>S22 IBM Summer 2022 Opportunities - Various Locations 139912 E2</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Global Relay Communications Inc.</t>
+          <t>IBM Canada Ltd.</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -8007,15 +7999,15 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Markham, ON</t>
         </is>
       </c>
       <c r="K154" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Mar 18, 2022  09:00 AM</t>
+          <t>Mar 15, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M154" t="inlineStr"/>
@@ -8026,7 +8018,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Shortlisted  Apply</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -8037,16 +8029,16 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>141096</v>
+        <v>140788</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>S22 Software Developer 141096B</t>
+          <t>S22 System Access Analyst 140788 E1</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>GlüxKind</t>
+          <t>ICBC Insurance Corporation of British Columbia</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -8064,7 +8056,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M155" t="inlineStr"/>
@@ -8086,16 +8078,16 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>141097</v>
+        <v>140789</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>S22 Electrical Engineer 141097B</t>
+          <t>S22 Full Stack Software Developer - Innovation and Automation Co-op (Onsite/Remote) 140789 E1</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>GlüxKind</t>
+          <t>ICBC Insurance Corporation of British Columbia</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -8105,15 +8097,15 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>North Vancouver, BC</t>
         </is>
       </c>
       <c r="K156" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M156" t="inlineStr"/>
@@ -8135,16 +8127,16 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>141090</v>
+        <v>140791</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>S22 Geographic Information System Co-op 141090B</t>
+          <t>S22 Middleware Platforms Co-op (Onsite/Remote) 140791 E1</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Government of Nova Scotia</t>
+          <t>ICBC Insurance Corporation of British Columbia</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -8154,15 +8146,15 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Various, NS</t>
+          <t>North Vancouver, BC</t>
         </is>
       </c>
       <c r="K157" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M157" t="inlineStr"/>
@@ -8184,16 +8176,16 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>141030</v>
+        <v>140793</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>S22 Co-op Application Engineering Co-op Student 141030</t>
+          <t>S22 Technical Operations and Software Platforms Co-op (Onsite/Remote) 140793 E1</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Greenlight Innovation</t>
+          <t>ICBC Insurance Corporation of British Columbia</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -8203,15 +8195,15 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>North Vancouver, BC</t>
         </is>
       </c>
       <c r="K158" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M158" t="inlineStr"/>
@@ -8233,16 +8225,16 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>140925</v>
+        <v>140794</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>S22 Applications Specialist Intern 140925B E1</t>
+          <t>S22 Associate Security Operations Analyst Co-op (Onsite/Remote) 140794 E1</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Harris Computer</t>
+          <t>ICBC Insurance Corporation of British Columbia</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -8252,11 +8244,11 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>North Vancouver, BC</t>
         </is>
       </c>
       <c r="K159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -8282,16 +8274,16 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>140690</v>
+        <v>140795</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>S22 Project Controller 140690 E1</t>
+          <t>S22 Big Data Management Platforms Co-op (Onsite/Remote) 140795 E1</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Hatch Ltd.</t>
+          <t>ICBC Insurance Corporation of British Columbia</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -8301,11 +8293,11 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>North Vancouver, BC</t>
         </is>
       </c>
       <c r="K160" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -8331,16 +8323,16 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>140879</v>
+        <v>140797</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>S22 Student Geological Engineering / Geoscience-55163 140879 E1</t>
+          <t>S22 Information Management Co-op (Onsite/Remote) 140797 E1</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Hatch Ltd.</t>
+          <t>ICBC Insurance Corporation of British Columbia</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -8350,15 +8342,15 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>North Vancouver, BC</t>
         </is>
       </c>
       <c r="K161" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Mar 16, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M161" t="inlineStr"/>
@@ -8380,16 +8372,16 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>141017</v>
+        <v>140798</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>S22 Co-op Mechanical co-op student 141017</t>
+          <t>S22 Automation/Performance Test Engineer Co-op (Onsite/Remote) 140798 E1</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Hatch Ltd.</t>
+          <t>ICBC Insurance Corporation of British Columbia</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -8399,15 +8391,15 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>North Vancouver, BC</t>
         </is>
       </c>
       <c r="K162" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Mar 25, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M162" t="inlineStr"/>
@@ -8429,16 +8421,16 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>141021</v>
+        <v>140799</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>S22 Co-op Service Desk Intern - Vancouver (Summer 2022) 141021</t>
+          <t>S22 Application Development Co-op 140799 E1</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Hatch Ltd.</t>
+          <t>ICBC Insurance Corporation of British Columbia</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -8448,15 +8440,15 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>North Vancouver, BC</t>
         </is>
       </c>
       <c r="K163" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Mar 28, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M163" t="inlineStr"/>
@@ -8478,16 +8470,16 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>140466</v>
+        <v>141095</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>S22 Transportation Engineer 140466 E2</t>
+          <t>S22 Co-Op Corporate Project Coordinator 141095</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>HDR Inc</t>
+          <t>ICBC Insurance Corporation of British Columbia</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -8497,15 +8489,15 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Richmond Hill, ON</t>
+          <t>Lower Mainland, BC</t>
         </is>
       </c>
       <c r="K164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M164" t="inlineStr"/>
@@ -8527,16 +8519,16 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>140485</v>
+        <v>141102</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>S22 Software Development Intern 140485B E3</t>
+          <t>S22 Application Functional tester 141102</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Helcim Inc.</t>
+          <t>ICBC Insurance Corporation of British Columbia</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -8546,15 +8538,15 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Calgary, AB</t>
+          <t>North Vancouver, BC</t>
         </is>
       </c>
       <c r="K165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M165" t="inlineStr"/>
@@ -8576,16 +8568,16 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>140487</v>
+        <v>139174</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>S22 Data Analytics Intern 140487B E3</t>
+          <t>S22 Parent Seed Summer Production Associate 139174B E5</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Helcim Inc.</t>
+          <t>Impres Inc</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -8595,15 +8587,15 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Calgary, AB</t>
+          <t>Cranbrook, BC</t>
         </is>
       </c>
       <c r="K166" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 16, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M166" t="inlineStr"/>
@@ -8625,16 +8617,16 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>140899</v>
+        <v>141014</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>S22 Jr. Electrical Engineer 140899B</t>
+          <t>S22 Field Solutions Summer Associate - Bayer CropScience - 141014B</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Hevvy Pumps</t>
+          <t>Impres Inc</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -8644,7 +8636,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Port Coquitlam, BC</t>
+          <t>Olds, AB</t>
         </is>
       </c>
       <c r="K167" t="n">
@@ -8652,7 +8644,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M167" t="inlineStr"/>
@@ -8674,16 +8666,16 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>140953</v>
+        <v>141023</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>S22 Field Service Engineer Intern 140953 E1</t>
+          <t>S22 Seed Technician Assistant - Bayer CropScience - Lethbridge 141023B</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Honeywell ASCa Inc.</t>
+          <t>Impres Inc</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -8693,7 +8685,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Lethbridge, AB</t>
         </is>
       </c>
       <c r="K168" t="n">
@@ -8701,7 +8693,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Mar 17, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M168" t="inlineStr"/>
@@ -8723,16 +8715,16 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>141032</v>
+        <v>140369</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>S22 Engineering co-op (MICe) 141032B</t>
+          <t>S22 Co-op Mechanical Intern 140369 E2</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Hospital for Sick Children (SickKids)</t>
+          <t>Integral Group</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -8742,7 +8734,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Various, Canada</t>
         </is>
       </c>
       <c r="K169" t="n">
@@ -8750,7 +8742,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M169" t="inlineStr"/>
@@ -8761,7 +8753,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Shortlisted  Apply</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -8772,16 +8764,16 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>140819</v>
+        <v>140370</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>S22 Intern/Co-op - Cloud Full Stack Developer 140819 E1</t>
+          <t>S22 Co-op Electrical Intern 140370 E2</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>HSBC Bank Canada</t>
+          <t>Integral Group</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -8791,15 +8783,15 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Various, Canada</t>
         </is>
       </c>
       <c r="K170" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Mar 17, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M170" t="inlineStr"/>
@@ -8821,16 +8813,16 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>141058</v>
+        <v>140477</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>S22 Various Opportunities 141058B</t>
+          <t>S22 IMIT Telehealth Systems Student 140477 E2</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>iA Financial Group (Industrial Alliance)</t>
+          <t>Interior Health Authority</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -8840,15 +8832,15 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Toronto, ON or Vancouver, BC</t>
+          <t>Kelowna, BC</t>
         </is>
       </c>
       <c r="K171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Apr 15, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M171" t="inlineStr"/>
@@ -8870,16 +8862,16 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>140064</v>
+        <v>141006</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>S22 DevOps Developer Intern (16 months) 140064 E2</t>
+          <t>S22 Manufacturing Operations Intern 141006B</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>IBM Canada Ltd.</t>
+          <t>J.R. Simplot Company</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -8889,11 +8881,11 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Markham, ON</t>
+          <t>Portage la Prairie, MB</t>
         </is>
       </c>
       <c r="K172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -8908,7 +8900,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -8919,16 +8911,16 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>139912</v>
+        <v>141152</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>S22 IBM Summer 2022 Opportunities - Various Locations 139912 E2</t>
+          <t>NEW  S22 Jostle Summer Co-op Opportunities 141152</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>IBM Canada Ltd.</t>
+          <t>Jostle</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -8938,15 +8930,15 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Markham, ON</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K173" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Mar 15, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M173" t="inlineStr"/>
@@ -8968,16 +8960,16 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>140788</v>
+        <v>139431</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>S22 System Access Analyst 140788 E1</t>
+          <t>S22 Clinical Training Co-op 139431 E2</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>ICBC Insurance Corporation of British Columbia</t>
+          <t>Kardium Inc.</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -8987,15 +8979,15 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M174" t="inlineStr"/>
@@ -9017,16 +9009,16 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>140789</v>
+        <v>141115</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>S22 Full Stack Software Developer - Innovation and Automation Co-op (Onsite/Remote) 140789 E1</t>
+          <t>S22 AI-Product Developer 141115</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>ICBC Insurance Corporation of British Columbia</t>
+          <t>Keirton Inc</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -9036,15 +9028,15 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>North Vancouver, BC</t>
+          <t>Surrey, BC</t>
         </is>
       </c>
       <c r="K175" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M175" t="inlineStr"/>
@@ -9066,16 +9058,16 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>140791</v>
+        <v>141010</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>S22 Middleware Platforms Co-op (Onsite/Remote) 140791 E1</t>
+          <t>S22 Co-op Process Safety Co-Op Student 141010</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>ICBC Insurance Corporation of British Columbia</t>
+          <t>Keyera</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -9085,11 +9077,11 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>North Vancouver, BC</t>
+          <t>Calgary or Edmonton, AB</t>
         </is>
       </c>
       <c r="K176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -9115,16 +9107,16 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>140793</v>
+        <v>140951</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>S22 Technical Operations and Software Platforms Co-op (Onsite/Remote) 140793 E1</t>
+          <t>S22 ELECTRIFICATION ENGINEER INTERN 140951 E1</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>ICBC Insurance Corporation of British Columbia</t>
+          <t>Kiewit</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -9134,15 +9126,15 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>North Vancouver, BC</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 17, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M177" t="inlineStr"/>
@@ -9164,16 +9156,16 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>140794</v>
+        <v>140534</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>S22 Associate Security Operations Analyst Co-op (Onsite/Remote) 140794 E1</t>
+          <t>S22 Various Opportunities 140534B E3</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>ICBC Insurance Corporation of British Columbia</t>
+          <t>Kinaxis</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -9183,15 +9175,15 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>North Vancouver, BC</t>
+          <t>Various, ON</t>
         </is>
       </c>
       <c r="K178" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M178" t="inlineStr"/>
@@ -9213,16 +9205,16 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>140795</v>
+        <v>140813</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>S22 Big Data Management Platforms Co-op (Onsite/Remote) 140795 E1</t>
+          <t>S22 Education Game Developer Intern 140813B</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>ICBC Insurance Corporation of British Columbia</t>
+          <t>Knowledgehook</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -9232,15 +9224,15 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>North Vancouver, BC</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="K179" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Apr 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M179" t="inlineStr"/>
@@ -9262,16 +9254,16 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>140797</v>
+        <v>140954</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>S22 Information Management Co-op (Onsite/Remote) 140797 E1</t>
+          <t>S22 Electro-Mechanical Intern 140954 E1</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>ICBC Insurance Corporation of British Columbia</t>
+          <t>Kodak Canada ULC</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -9281,15 +9273,15 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>North Vancouver, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K180" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 17, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M180" t="inlineStr"/>
@@ -9311,16 +9303,16 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>140798</v>
+        <v>140955</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>S22 Automation/Performance Test Engineer Co-op (Onsite/Remote) 140798 E1</t>
+          <t>S22 Quality Tech Intern 140955 E1</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>ICBC Insurance Corporation of British Columbia</t>
+          <t>Kodak Canada ULC</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -9330,15 +9322,15 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>North Vancouver, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K181" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 17, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M181" t="inlineStr"/>
@@ -9360,16 +9352,16 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>140799</v>
+        <v>140527</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>S22 Application Development Co-op 140799 E1</t>
+          <t>S22 Co-op Beyond Beer Commercial Internship (2022) 140527 E2</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>ICBC Insurance Corporation of British Columbia</t>
+          <t>Labatt Breweries of Canada</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -9379,15 +9371,15 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>North Vancouver, BC</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="K182" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M182" t="inlineStr"/>
@@ -9409,16 +9401,16 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>141095</v>
+        <v>140528</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>S22 Co-Op Corporate Project Coordinator 141095</t>
+          <t>S22 Supply Intern - London 140528 E2</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>ICBC Insurance Corporation of British Columbia</t>
+          <t>Labatt Breweries of Canada</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -9428,15 +9420,15 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Lower Mainland, BC</t>
+          <t>London, ON</t>
         </is>
       </c>
       <c r="K183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M183" t="inlineStr"/>
@@ -9458,16 +9450,16 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>141102</v>
+        <v>140917</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>S22 Application Functional tester 141102</t>
+          <t>S22 ELECTRICAL ENGINEERING CO-OP POSITION 140917 E1</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>ICBC Insurance Corporation of British Columbia</t>
+          <t>Lantic Inc. / Rogers Sugar</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -9477,15 +9469,15 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>North Vancouver, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M184" t="inlineStr"/>
@@ -9507,16 +9499,16 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>140970</v>
+        <v>140771</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>S22 Various Opportunities 140970B</t>
+          <t>S22 Co-op Mechanical Co-Op Student 140771</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>IHS Markit</t>
+          <t>Laporte Consultants Inc.</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -9526,15 +9518,15 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Calgary, AB</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K185" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Apr 30, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M185" t="inlineStr"/>
@@ -9556,16 +9548,16 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>139174</v>
+        <v>140777</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>S22 Parent Seed Summer Production Associate 139174B E5</t>
+          <t>S22 Process Co-Op Student 140777</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Impres Inc</t>
+          <t>Laporte Consultants Inc.</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -9575,15 +9567,15 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Cranbrook, BC</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K186" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Mar 16, 2022  09:00 AM</t>
+          <t>May 2, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M186" t="inlineStr"/>
@@ -9605,16 +9597,16 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>141014</v>
+        <v>140778</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>S22 Field Solutions Summer Associate - Bayer CropScience - 141014B</t>
+          <t>S22 Electrical Coop Student Burnaby 140778</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Impres Inc</t>
+          <t>Laporte Consultants Inc.</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -9624,7 +9616,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Olds, AB</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K187" t="n">
@@ -9632,7 +9624,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>May 2, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M187" t="inlineStr"/>
@@ -9643,7 +9635,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -9654,16 +9646,16 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>141023</v>
+        <v>139814</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>S22 Seed Technician Assistant - Bayer CropScience - Lethbridge 141023B</t>
+          <t>S22 QA Dev Co-Op (Summer Term 2022) 139814 E3</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Impres Inc</t>
+          <t>Later</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -9673,15 +9665,15 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Lethbridge, AB</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K188" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M188" t="inlineStr"/>
@@ -9703,16 +9695,16 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>140891</v>
+        <v>140768</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>S22 Engineering Co-op 140891B</t>
+          <t>S22 Software Development Intern 140768B E2</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>INEO Solutions Inc.</t>
+          <t>Lattice Semiconductor</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -9722,15 +9714,15 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Surrey, BC</t>
+          <t>Montreal, QC</t>
         </is>
       </c>
       <c r="K189" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M189" t="inlineStr"/>
@@ -9752,16 +9744,16 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>140369</v>
+        <v>141067</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>S22 Co-op Mechanical Intern 140369 E2</t>
+          <t>S22 Chemistry Research Assistant Co-op 141067B</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Integral Group</t>
+          <t>Livestock Water Recycling</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -9771,15 +9763,15 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Various, Canada</t>
+          <t>Calgary, AB</t>
         </is>
       </c>
       <c r="K190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M190" t="inlineStr"/>
@@ -9801,16 +9793,16 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>140370</v>
+        <v>141091</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>S22 Co-op Electrical Intern 140370 E2</t>
+          <t>S22 Software Developer Co-op 141091B</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Integral Group</t>
+          <t>Loblaw Companies Ltd</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -9820,11 +9812,11 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Various, Canada</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -9850,16 +9842,16 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>140477</v>
+        <v>141022</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>S22 IMIT Telehealth Systems Student 140477 E2</t>
+          <t>S22 Co-op Mechanical Engineer 141022</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Interior Health Authority</t>
+          <t>Loop Energy Inc.</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -9869,7 +9861,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Kelowna, BC</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K192" t="n">
@@ -9877,7 +9869,7 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 31, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M192" t="inlineStr"/>
@@ -9899,16 +9891,16 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>141006</v>
+        <v>141050</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>S22 Manufacturing Operations Intern 141006B</t>
+          <t>S22 R&amp;amp;D Technician co-op 141050B</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>J.R. Simplot Company</t>
+          <t>Lumi Foods</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -9918,15 +9910,15 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Portage la Prairie, MB</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M193" t="inlineStr"/>
@@ -9948,16 +9940,16 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>139431</v>
+        <v>141046</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>S22 Clinical Training Co-op 139431 E2</t>
+          <t>S22 Network Support Intern 141046B</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Kardium Inc.</t>
+          <t>Managedfuture Technologies</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -9967,15 +9959,15 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Coquitlam, BC</t>
         </is>
       </c>
       <c r="K194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Mar 14, 2022  09:00 AM</t>
+          <t>Mar 15, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M194" t="inlineStr"/>
@@ -9997,16 +9989,16 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>141115</v>
+        <v>140653</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>S22 AI-Product Developer 141115</t>
+          <t>S22 Various Opportunities 140653B</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Keirton Inc</t>
+          <t>Marvell Technology Group Ltd.</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -10016,15 +10008,15 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Surrey, BC</t>
+          <t>Ottawa, ON</t>
         </is>
       </c>
       <c r="K195" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Mar 14, 2022  09:00 AM</t>
+          <t>Mar 31, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M195" t="inlineStr"/>
@@ -10046,16 +10038,16 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>141010</v>
+        <v>140648</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>S22 Co-op Process Safety Co-Op Student 141010</t>
+          <t>S22 Backend Engineering Intern 140648B E2</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Keyera</t>
+          <t>Mercury</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -10065,15 +10057,15 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Calgary or Edmonton, AB</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="K196" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M196" t="inlineStr"/>
@@ -10095,16 +10087,16 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>140951</v>
+        <v>140989</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>S22 ELECTRIFICATION ENGINEER INTERN 140951 E1</t>
+          <t>S22 Laboratory Technician 140989 E1</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Kiewit</t>
+          <t>MerIEUX NutriSciences</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -10118,11 +10110,11 @@
         </is>
       </c>
       <c r="K197" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Mar 17, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M197" t="inlineStr"/>
@@ -10144,16 +10136,16 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>140534</v>
+        <v>139937</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>S22 Various Opportunities 140534B E3</t>
+          <t>S22 Data &amp;amp; Applied Sciences: Intern Opportunities 139937 E3</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Kinaxis</t>
+          <t>Microsoft Corporation</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -10163,15 +10155,15 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Various, ON</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K198" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 16, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M198" t="inlineStr"/>
@@ -10182,27 +10174,31 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Applied</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Applied via employer's website</t>
+        </is>
+      </c>
       <c r="E199" t="inlineStr">
         <is>
           <t>2022 - Summer</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>140603</v>
+        <v>139938</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>S22 Various Opportunities 140603B E1</t>
+          <t>S22 Software Engineer: Intern Opportunities (1115401) 139938 E3</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Kinross Gold Corporation</t>
+          <t>Microsoft Corporation</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -10212,15 +10208,15 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K199" t="n">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Mar 7, 2022  09:00 AM</t>
+          <t>Mar 16, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M199" t="inlineStr"/>
@@ -10242,16 +10238,16 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>140813</v>
+        <v>139403</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>S22 Education Game Developer Intern 140813B</t>
+          <t>S22 Intern Applied Data, Digital Solutions 139403 E4</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Knowledgehook</t>
+          <t>MNP</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -10265,11 +10261,11 @@
         </is>
       </c>
       <c r="K200" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Apr 11, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M200" t="inlineStr"/>
@@ -10280,7 +10276,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -10291,16 +10287,16 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>140954</v>
+        <v>141130</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>S22 Electro-Mechanical Intern 140954 E1</t>
+          <t>NEW  S22 Software Development Co-op 141130B</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Kodak Canada ULC</t>
+          <t>Moz Inc.</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -10310,7 +10306,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Vancouver, BC or remote</t>
         </is>
       </c>
       <c r="K201" t="n">
@@ -10318,7 +10314,7 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Mar 17, 2022  09:00 AM</t>
+          <t>Apr 22, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M201" t="inlineStr"/>

--- a/table.xlsx
+++ b/table.xlsx
@@ -1745,16 +1745,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>140521</v>
+        <v>140942</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>S22 Biomedical Engineer 140521 E1</t>
+          <t>NEW  S22 R&amp;amp;D Engineer Intern 140942B E2</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aspect Biosystems</t>
+          <t>Aruna Revolution</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1764,15 +1764,15 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>North Vancouver, BC</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Mar 14, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M27" t="inlineStr"/>
@@ -1783,31 +1783,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Shortlist  Applied</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Applied via employer's website</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>2022 - Summer</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>139851</v>
+        <v>140521</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>S22 Co-op at Atimi 139851 E3</t>
+          <t>S22 Biomedical Engineer 140521 E1</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Atimi Software Inc.</t>
+          <t>Aspect Biosystems</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1821,11 +1817,11 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M28" t="inlineStr"/>
@@ -1836,27 +1832,31 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlist  Applied</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Applied via employer's website</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>2022 - Summer</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>141018</v>
+        <v>139851</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>S22 CO-OP Engineering 141018</t>
+          <t>S22 Co-op at Atimi 139851 E3</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Ausenco Sandwell</t>
+          <t>Atimi Software Inc.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1896,16 +1896,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>141052</v>
+        <v>141018</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>S22 Front End Developer Intern 141052B</t>
+          <t>S22 CO-OP Engineering 141018</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Avanade</t>
+          <t>Ausenco Sandwell</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Los Angeles, CA or Seattle, WA</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M30" t="inlineStr"/>
@@ -1945,16 +1945,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>140822</v>
+        <v>141052</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>S22 Data Intern 140822B</t>
+          <t>S22 Front End Developer Intern 141052B</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aviva Canada Inc</t>
+          <t>Avanade</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1964,15 +1964,15 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Various, ON</t>
+          <t>Los Angeles, CA or Seattle, WA</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Mar 14, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M31" t="inlineStr"/>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Shortlisted  Apply</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1994,16 +1994,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>140541</v>
+        <v>140822</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>S22 Software Developer 140541B</t>
+          <t>S22 Data Intern 140822B</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Ayogo</t>
+          <t>Aviva Canada Inc</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2013,15 +2013,15 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Various, ON</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Mar 15, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M32" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -2043,16 +2043,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>140656</v>
+        <v>140541</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>S22 Co-op University Internships (Canada) - Summer Opportunities 2022 140656 E1</t>
+          <t>S22 Software Developer 140541B</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Baker Hughes</t>
+          <t>Ayogo</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Leduc, AB</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 15, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M33" t="inlineStr"/>
@@ -2092,16 +2092,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>140583</v>
+        <v>140656</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>S22 Systems Mechanical Engineering 140583 E3</t>
+          <t>S22 Co-op University Internships (Canada) - Summer Opportunities 2022 140656 E1</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Ballard Power Systems Inc.</t>
+          <t>Baker Hughes</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2111,11 +2111,11 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Leduc, AB</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2141,11 +2141,11 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>140773</v>
+        <v>140583</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>S22 Advanced Manufacturing (Stack) 140773 E2</t>
+          <t>S22 Systems Mechanical Engineering 140583 E3</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2190,16 +2190,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>141068</v>
+        <v>140773</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>S22 Research Associate Internship 141068B</t>
+          <t>S22 Advanced Manufacturing (Stack) 140773 E2</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>BASF</t>
+          <t>Ballard Power Systems Inc.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Winkler, MB</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K36" t="n">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M36" t="inlineStr"/>
@@ -2239,16 +2239,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>140090</v>
+        <v>141068</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>S22 Electrical/Automation Intern 140090</t>
+          <t>S22 Research Associate Internship 141068B</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>BBA Inc.</t>
+          <t>BASF</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2258,15 +2258,15 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Winkler, MB</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Mar 31, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M37" t="inlineStr"/>
@@ -2288,11 +2288,11 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>140117</v>
+        <v>140090</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>S22 Mechanical Intern/Trainee (#732) 140117</t>
+          <t>S22 Electrical/Automation Intern 140090</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2311,7 +2311,7 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2337,16 +2337,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>140947</v>
+        <v>140117</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>S22 Co-op student - Full-Stack Developer (Hybrid or Remote) 140947</t>
+          <t>S22 Mechanical Intern/Trainee (#732) 140117</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>BC Cancer Research Centre</t>
+          <t>BBA Inc.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2360,11 +2360,11 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Mar 15, 2022  09:00 AM</t>
+          <t>Mar 31, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M39" t="inlineStr"/>
@@ -2386,11 +2386,11 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>140949</v>
+        <v>140947</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>NEW  S22 Co-op position for advanced digital pathology using CNNs 140949B E1</t>
+          <t>S22 Co-op student - Full-Stack Developer (Hybrid or Remote) 140947</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2409,11 +2409,11 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Mar 14, 2022  09:00 AM</t>
+          <t>Mar 15, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M40" t="inlineStr"/>
@@ -2435,16 +2435,16 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>140945</v>
+        <v>140949</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>S22 Graduate Research Assistant 140945B</t>
+          <t>NEW  S22 Co-op position for advanced digital pathology using CNNs 140949B E1</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>BC Centre for Excellence in HIV</t>
+          <t>BC Cancer Research Centre</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2458,11 +2458,11 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M41" t="inlineStr"/>
@@ -2484,16 +2484,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>141093</v>
+        <v>140945</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>S22 Motion Lab Engineer 141093</t>
+          <t>S22 Graduate Research Assistant 140945B</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>BC Children's Hospital</t>
+          <t>BC Centre for Excellence in HIV</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Mar 14, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M42" t="inlineStr"/>
@@ -2533,16 +2533,16 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>141147</v>
+        <v>141093</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>NEW  S22 Climate Change Research Co-op 141147B</t>
+          <t>S22 Motion Lab Engineer 141093</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>BC Ministry of Agriculture</t>
+          <t>BC Children's Hospital</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Abbotsford, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K43" t="n">
@@ -2582,16 +2582,16 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>141071</v>
+        <v>141147</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>S22 Co-op Student 141071</t>
+          <t>NEW  S22 Climate Change Research Co-op 141147B</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>BC Research Inc.</t>
+          <t>BC Ministry of Agriculture</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2601,15 +2601,15 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Richmond, BC</t>
+          <t>Abbotsford, BC</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M44" t="inlineStr"/>
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>141107</v>
+        <v>141071</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>S22 Co-op Graduate Employment 141107</t>
+          <t>S22 Co-op Student 141071</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>BES-Building Energy Solutions</t>
+          <t>BC Research Inc.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2650,15 +2650,15 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Richmond, BC</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Mar 16, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M45" t="inlineStr"/>
@@ -2669,31 +2669,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Shortlisted  Applied</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Applied via employer's website</t>
-        </is>
-      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
           <t>2022 - Summer</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>140913</v>
+        <v>141166</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>S22 Co-op Software Developer (Data) Co-op/PEY 140913 E1</t>
+          <t>NEW  S22 Fleet Engineering Co-op 141166</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>BioRender</t>
+          <t>BC Transit</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2703,15 +2699,15 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Victoria, BC</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Mar 15, 2022  09:00 AM</t>
+          <t>Mar 21, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M46" t="inlineStr"/>
@@ -2733,16 +2729,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>140886</v>
+        <v>141107</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>S22 Clinical Research Assistant Co-op 140886 E1</t>
+          <t>S22 Co-op Graduate Employment 141107</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Black Tusk Research Group Inc. (St. Paul's Hospital)</t>
+          <t>BES-Building Energy Solutions</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2756,11 +2752,11 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 16, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M47" t="inlineStr"/>
@@ -2771,27 +2767,31 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Applied</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Applied via employer's website</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>2022 - Summer</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>139416</v>
+        <v>140913</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>S22 BlackBerry Summer 2022 Opportunities 139416 E4</t>
+          <t>S22 Co-op Software Developer (Data) Co-op/PEY 140913 E1</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>BlackBerry</t>
+          <t>BioRender</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2801,15 +2801,15 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Waterloo, ON</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 15, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M48" t="inlineStr"/>
@@ -2831,16 +2831,16 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>139777</v>
+        <v>140886</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>S22 BlackBerry Summer 2022 Opportunities - Various Locations 139777 E3</t>
+          <t>S22 Clinical Research Assistant Co-op 140886 E1</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>BlackBerry</t>
+          <t>Black Tusk Research Group Inc. (St. Paul's Hospital)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2850,15 +2850,15 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Ottawa, ON</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M49" t="inlineStr"/>
@@ -2880,11 +2880,11 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>139785</v>
+        <v>139416</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>S22 BlackBerry Summer 2022 Opportunities - Various Locations 139785 E3</t>
+          <t>S22 BlackBerry Summer 2022 Opportunities 139416 E4</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2903,7 +2903,7 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2929,11 +2929,11 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>139806</v>
+        <v>139777</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>S22 BlackBerry Summer 2022 Opportunities - Various Locations 139806 E3</t>
+          <t>S22 BlackBerry Summer 2022 Opportunities - Various Locations 139777 E3</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2948,11 +2948,11 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Waterloo, ON</t>
+          <t>Ottawa, ON</t>
         </is>
       </c>
       <c r="K51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2978,11 +2978,11 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>139811</v>
+        <v>139785</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>S22 BlackBerry Summer Opportunities - Various Locations 139811 E3</t>
+          <t>S22 BlackBerry Summer 2022 Opportunities - Various Locations 139785 E3</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -3027,11 +3027,11 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>139816</v>
+        <v>139806</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>S22 BlackBerry Summer 2022 Opportunities - Various Locations 139816 E3</t>
+          <t>S22 BlackBerry Summer 2022 Opportunities - Various Locations 139806 E3</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -3076,11 +3076,11 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>139817</v>
+        <v>139811</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>S22 BlackBerry Summer 2022 Opportunities - Various Locations 139817 E3</t>
+          <t>S22 BlackBerry Summer Opportunities - Various Locations 139811 E3</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M54" t="inlineStr"/>
@@ -3125,11 +3125,11 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>140834</v>
+        <v>139816</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>S22 Software Development Student - 8 Month Summer Term (20211943) 140834</t>
+          <t>S22 BlackBerry Summer 2022 Opportunities - Various Locations 139816 E3</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3148,11 +3148,11 @@
         </is>
       </c>
       <c r="K55" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M55" t="inlineStr"/>
@@ -3174,11 +3174,11 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>140933</v>
+        <v>139817</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>S22 Unified Communication Systems Student - 4 or 8 Month Summer Term (20211688) 140933</t>
+          <t>S22 BlackBerry Summer 2022 Opportunities - Various Locations 139817 E3</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3197,7 +3197,7 @@
         </is>
       </c>
       <c r="K56" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -3223,16 +3223,16 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>141008</v>
+        <v>140834</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>S22 Processing QA Technician (Co-op) 141008B</t>
+          <t>S22 Software Development Student - 8 Month Summer Term (20211943) 140834</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Bonduelle</t>
+          <t>BlackBerry</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3242,11 +3242,11 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Ingersoll, ON</t>
+          <t>Waterloo, ON</t>
         </is>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -3272,16 +3272,16 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>141135</v>
+        <v>140933</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>S22 Coop Student (4th Year) EOR EIN 141135</t>
+          <t>S22 Unified Communication Systems Student - 4 or 8 Month Summer Term (20211688) 140933</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Bureau Veritas Laboratories (formerly Maxxam Analytics Inc. (changed S19))</t>
+          <t>BlackBerry</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3291,15 +3291,15 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Waterloo, ON</t>
         </is>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M58" t="inlineStr"/>
@@ -3321,16 +3321,16 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>141137</v>
+        <v>141008</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>S22 Coop Student (4th Year) FEDT 141137</t>
+          <t>S22 Processing QA Technician (Co-op) 141008B</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Bureau Veritas Laboratories (formerly Maxxam Analytics Inc. (changed S19))</t>
+          <t>Bonduelle</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3340,15 +3340,15 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Ingersoll, ON</t>
         </is>
       </c>
       <c r="K59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
@@ -3370,11 +3370,11 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>141138</v>
+        <v>141135</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>S22 Coop Student (4th Year) FMB 141138</t>
+          <t>S22 Coop Student (4th Year) EOR EIN 141135</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3419,11 +3419,11 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>141139</v>
+        <v>141137</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>S22 Coop Student (4th Year) FRE (Tech) 141139</t>
+          <t>S22 Coop Student (4th Year) FEDT 141137</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -3468,16 +3468,16 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>140873</v>
+        <v>141138</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>S22 Co-op Electrical and Computer Engineering Technology 140873 E1</t>
+          <t>S22 Coop Student (4th Year) FMB 141138</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Canadian Circuits Inc.</t>
+          <t>Bureau Veritas Laboratories (formerly Maxxam Analytics Inc. (changed S19))</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3487,15 +3487,15 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Surrey, BC</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M62" t="inlineStr"/>
@@ -3517,16 +3517,16 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>141085</v>
+        <v>141139</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>S22 Co-op/Practicum Student - General Posting 141085B</t>
+          <t>S22 Coop Student (4th Year) FRE (Tech) 141139</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Canadian Institute for Health Information (CIHI)</t>
+          <t>Bureau Veritas Laboratories (formerly Maxxam Analytics Inc. (changed S19))</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Ottawa, ON</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K63" t="n">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M63" t="inlineStr"/>
@@ -3566,16 +3566,16 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>141082</v>
+        <v>140873</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>S22 Data Governance and Quality 141082B</t>
+          <t>S22 Co-op Electrical and Computer Engineering Technology 140873 E1</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Canadian National Railway (CNR)</t>
+          <t>Canadian Circuits Inc.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3585,15 +3585,15 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Montreal, QC</t>
+          <t>Surrey, BC</t>
         </is>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M64" t="inlineStr"/>
@@ -3615,16 +3615,16 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>138985</v>
+        <v>141085</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>S22 Various Co-op Opportunities 138985 E3</t>
+          <t>S22 Co-op/Practicum Student - General Posting 141085B</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Canadian Natural Resources Ltd</t>
+          <t>Canadian Institute for Health Information (CIHI)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3634,15 +3634,15 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Various</t>
+          <t>Ottawa, ON</t>
         </is>
       </c>
       <c r="K65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Apr 4, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M65" t="inlineStr"/>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>140533</v>
+        <v>141082</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>S22 Co-op GIS Technician - Temp, 11months (Variable Locations) 140533 E2</t>
+          <t>S22 Data Governance and Quality 141082B</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Canfor</t>
+          <t>Canadian National Railway (CNR)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Various, Canada</t>
+          <t>Montreal, QC</t>
         </is>
       </c>
       <c r="K66" t="n">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Mar 15, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M66" t="inlineStr"/>
@@ -3713,16 +3713,16 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>140807</v>
+        <v>138985</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>S22 Quality Control Engineer 140807 E1</t>
+          <t>S22 Various Co-op Opportunities 138985 E3</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Canfor</t>
+          <t>Canadian Natural Resources Ltd</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3732,15 +3732,15 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Prince George, BC</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Apr 4, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M67" t="inlineStr"/>
@@ -3762,11 +3762,11 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>140985</v>
+        <v>140533</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>S22 Process Engineer 22243 140985 E1</t>
+          <t>S22 Co-op GIS Technician - Temp, 11months (Variable Locations) 140533 E2</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3781,15 +3781,15 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Prince George, BC</t>
+          <t>Various, Canada</t>
         </is>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Mar 18, 2022  09:00 AM</t>
+          <t>Mar 15, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M68" t="inlineStr"/>
@@ -3811,11 +3811,11 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>140986</v>
+        <v>140807</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>S22 Support Analyst 22451 140986 E1</t>
+          <t>S22 Quality Control Engineer 140807 E1</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3830,15 +3830,15 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Prince George, BC</t>
         </is>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Mar 18, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M69" t="inlineStr"/>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Shortlisted  Apply</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3860,16 +3860,16 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>141123</v>
+        <v>140985</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>S22 Software Engineer 141123B</t>
+          <t>S22 Process Engineer 22243 140985 E1</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Capital One</t>
+          <t>Canfor</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3879,15 +3879,15 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Prince George, BC</t>
         </is>
       </c>
       <c r="K70" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 18, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M70" t="inlineStr"/>
@@ -3909,16 +3909,16 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>141072</v>
+        <v>140986</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>S22 Co-op Watershed Operator (1) 141072</t>
+          <t>S22 Support Analyst 22451 140986 E1</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Capital Regional District</t>
+          <t>Canfor</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3928,15 +3928,15 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Victoria, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Mar 21, 2022  09:00 AM</t>
+          <t>Mar 18, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M71" t="inlineStr"/>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3958,16 +3958,16 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>140902</v>
+        <v>141123</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>S22 Software Developer 140902B E1</t>
+          <t>S22 Software Engineer 141123B</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Caranci Consulting</t>
+          <t>Capital One</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3977,15 +3977,15 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Barrie, ON</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="K72" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M72" t="inlineStr"/>
@@ -4007,16 +4007,16 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>141047</v>
+        <v>141072</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>S22 Data Mapping Co-op 141047B</t>
+          <t>S22 Co-op Watershed Operator (1) 141072</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>CARFAX Canada</t>
+          <t>Capital Regional District</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>London, ON</t>
+          <t>Victoria, BC</t>
         </is>
       </c>
       <c r="K73" t="n">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 21, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M73" t="inlineStr"/>
@@ -4056,16 +4056,16 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>140604</v>
+        <v>140902</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>S22 Co-op Engineering Co-op 2022 140604 E1</t>
+          <t>S22 Software Developer 140902B E1</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Cargill Limited</t>
+          <t>Caranci Consulting</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4075,15 +4075,15 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Surrey, BC</t>
+          <t>Barrie, ON</t>
         </is>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M74" t="inlineStr"/>
@@ -4105,16 +4105,16 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>140815</v>
+        <v>141047</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>S22 Operations Management Intern 140815B</t>
+          <t>S22 Data Mapping Co-op 141047B</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Cargill Limited</t>
+          <t>CARFAX Canada</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Vermillion, AB</t>
+          <t>London, ON</t>
         </is>
       </c>
       <c r="K75" t="n">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M75" t="inlineStr"/>
@@ -4154,16 +4154,16 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>140920</v>
+        <v>140604</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>S22 IT Security Intern 140920B E1</t>
+          <t>S22 Co-op Engineering Co-op 2022 140604 E1</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>CDW Canada Corp.</t>
+          <t>Cargill Limited</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4173,7 +4173,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Surrey, BC</t>
         </is>
       </c>
       <c r="K76" t="n">
@@ -4203,16 +4203,16 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>140906</v>
+        <v>140815</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>S22 Statistical Programmer 140906B</t>
+          <t>S22 Operations Management Intern 140815B</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Centre for Clinical Epidemiology and Evaluation</t>
+          <t>Cargill Limited</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4222,15 +4222,15 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Vermillion, AB</t>
         </is>
       </c>
       <c r="K77" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M77" t="inlineStr"/>
@@ -4252,16 +4252,16 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>140742</v>
+        <v>140920</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>S22 Cloud Infrastructure Engineering Student 140742B E2</t>
+          <t>S22 IT Security Intern 140920B E1</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Centre of Excellence in Next Generation Networks (CENGN)</t>
+          <t>CDW Canada Corp.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4271,15 +4271,15 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Ottawa, ON</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="K78" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M78" t="inlineStr"/>
@@ -4301,16 +4301,16 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>140404</v>
+        <v>140906</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>S22 Software Development Engineer - CHC 140404 E2</t>
+          <t>S22 Statistical Programmer 140906B</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Change Healthcare</t>
+          <t>Centre for Clinical Epidemiology and Evaluation</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4320,15 +4320,15 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Richmond, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K79" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M79" t="inlineStr"/>
@@ -4350,16 +4350,16 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>140851</v>
+        <v>140742</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>S22 Various Opportunities 140851B E1</t>
+          <t>S22 Cloud Infrastructure Engineering Student 140742B E2</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Ciena Canada</t>
+          <t>Centre of Excellence in Next Generation Networks (CENGN)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Various, ON</t>
+          <t>Ottawa, ON</t>
         </is>
       </c>
       <c r="K80" t="n">
@@ -4399,16 +4399,16 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>140957</v>
+        <v>140404</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>S22 Software Engineer (Intern) Canada 140957 E1</t>
+          <t>S22 Software Development Engineer - CHC 140404 E2</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Cisco Systems Co.</t>
+          <t>Change Healthcare</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4418,15 +4418,15 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Ottawa, ON</t>
+          <t>Richmond, BC</t>
         </is>
       </c>
       <c r="K81" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Mar 17, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M81" t="inlineStr"/>
@@ -4448,16 +4448,16 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>137685</v>
+        <v>140851</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>S22 Summer Software Development Technology Analyst 137685 E8</t>
+          <t>S22 Various Opportunities 140851B E1</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Citi Canada ICG Technology</t>
+          <t>Ciena Canada</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4467,15 +4467,15 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Mississauga, ON</t>
+          <t>Various, ON</t>
         </is>
       </c>
       <c r="K82" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M82" t="inlineStr"/>
@@ -4497,16 +4497,16 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>140960</v>
+        <v>140957</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>S22 Co-op 42997 Network Analyst Work Experience Student (Open City and Technology) 140960</t>
+          <t>S22 Software Engineer (Intern) Canada 140957 E1</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>City of Edmonton</t>
+          <t>Cisco Systems Co.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4516,15 +4516,15 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Edmonton, AB</t>
+          <t>Ottawa, ON</t>
         </is>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 17, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M83" t="inlineStr"/>
@@ -4546,16 +4546,16 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>141101</v>
+        <v>137685</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>S22 Co-op SNAP Urban Forest Outreach Team Leader 141101</t>
+          <t>S22 Summer Software Development Technology Analyst 137685 E8</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>City of Surrey</t>
+          <t>Citi Canada ICG Technology</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4565,15 +4565,15 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Surrey, BC</t>
+          <t>Mississauga, ON</t>
         </is>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Mar 25, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M84" t="inlineStr"/>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Shortlisted  Apply</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -4595,16 +4595,16 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>141110</v>
+        <v>140960</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>S22 Machine Learning Engineer Co-op 141110B</t>
+          <t>S22 Co-op 42997 Network Analyst Work Experience Student (Open City and Technology) 140960</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Clarius Mobile Health Corporation</t>
+          <t>City of Edmonton</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4614,7 +4614,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Edmonton, AB</t>
         </is>
       </c>
       <c r="K85" t="n">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M85" t="inlineStr"/>
@@ -4644,16 +4644,16 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>140885</v>
+        <v>141101</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>S22 Operations Specialist Co-op 140885B</t>
+          <t>S22 Co-op SNAP Urban Forest Outreach Team Leader 141101</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>CLEAResult</t>
+          <t>City of Surrey</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Surrey, BC</t>
         </is>
       </c>
       <c r="K86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 25, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M86" t="inlineStr"/>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -4693,16 +4693,16 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>141054</v>
+        <v>141110</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>S22 IT Intern - Cybersecurity Analyst 141054B</t>
+          <t>S22 Machine Learning Engineer Co-op 141110B</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Cogeco Connexion</t>
+          <t>Clarius Mobile Health Corporation</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Montreal, QC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K87" t="n">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M87" t="inlineStr"/>
@@ -4742,16 +4742,16 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>141094</v>
+        <v>140916</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>S22 Summer Co-op 141094B</t>
+          <t>NEW  S22 Cloud Provisioning &amp;amp; QA Co-op 140916B E2</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Conifer Homewares</t>
+          <t>ClearDent</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4761,15 +4761,15 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M88" t="inlineStr"/>
@@ -4791,16 +4791,16 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>140843</v>
+        <v>140885</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>S22 NLU Intern 140843B E1</t>
+          <t>S22 Operations Specialist Co-op 140885B</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>conversationHEALTH</t>
+          <t>CLEAResult</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4810,15 +4810,15 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M89" t="inlineStr"/>
@@ -4840,16 +4840,16 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>141109</v>
+        <v>141054</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>NEW  S22 Client Release Associate Co-Op 141109</t>
+          <t>S22 IT Intern - Cybersecurity Analyst 141054B</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Copperleaf Technologies Inc.</t>
+          <t>Cogeco Connexion</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4859,7 +4859,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Montreal, QC</t>
         </is>
       </c>
       <c r="K90" t="n">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Mar 14, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M90" t="inlineStr"/>
@@ -4878,7 +4878,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Shortlisted  Apply</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4889,16 +4889,16 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>140696</v>
+        <v>141094</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>S22 Automation Engineer 140696B E1</t>
+          <t>S22 Summer Co-op 141094B</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Countable Web Productions</t>
+          <t>Conifer Homewares</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -4912,11 +4912,11 @@
         </is>
       </c>
       <c r="K91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M91" t="inlineStr"/>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>141119</v>
+        <v>140843</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>S22 Co-op Utilities Labourer 141119</t>
+          <t>S22 NLU Intern 140843B E1</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Cowichan Valley Regional District (CVRD)</t>
+          <t>conversationHEALTH</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4957,15 +4957,15 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Duncan, BC</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Mar 24, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M92" t="inlineStr"/>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>140866</v>
+        <v>141109</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>S22 Operations Intern 140866B E1</t>
+          <t>NEW  S22 Client Release Associate Co-Op 141109</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Deebee's Organics</t>
+          <t>Copperleaf Technologies Inc.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5006,15 +5006,15 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Victoria, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K93" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M93" t="inlineStr"/>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -5036,16 +5036,16 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>141019</v>
+        <v>140696</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>S22 Co-op Coordinator, Construction Services - Indigenous Student Employment Opportunity-4463 141019</t>
+          <t>S22 Automation Engineer 140696B E1</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Defence Construction Canada</t>
+          <t>Countable Web Productions</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5055,15 +5055,15 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Various, AB and BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>May 31, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M94" t="inlineStr"/>
@@ -5085,16 +5085,16 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>141070</v>
+        <v>140582</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>S22 Co-op Coordinator, Construction Services - Indigenous Student Employment Opportunity 141070</t>
+          <t>NEW  S22 IT Engineer 140582B E2</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Defence Construction Canada</t>
+          <t>Coupon Magazine</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5104,15 +5104,15 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Various, Western Canada</t>
+          <t>Richmond, BC</t>
         </is>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Mar 31, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M95" t="inlineStr"/>
@@ -5134,16 +5134,16 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>140856</v>
+        <v>141119</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>S22 Big Data Scientist 140856B E1</t>
+          <t>S22 Co-op Utilities Labourer 141119</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Definity Financial Corporation</t>
+          <t>Cowichan Valley Regional District (CVRD)</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5153,15 +5153,15 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Waterloo, ON</t>
+          <t>Duncan, BC</t>
         </is>
       </c>
       <c r="K96" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 24, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M96" t="inlineStr"/>
@@ -5172,31 +5172,27 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Shortlisted  Applied</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Applied via employer's website</t>
-        </is>
-      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
           <t>2022 - Summer</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>139157</v>
+        <v>140866</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>S22 Software Development Internship (Vancouver; Req: R010669) - May 2022 139157 E6</t>
+          <t>S22 Operations Intern 140866B E1</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>DemonWare Inc.</t>
+          <t>Deebee's Organics</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5206,15 +5202,15 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Victoria, BC</t>
         </is>
       </c>
       <c r="K97" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Mar 16, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M97" t="inlineStr"/>
@@ -5236,16 +5232,16 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>141156</v>
+        <v>141019</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>NEW  S22 Media and Public Relations Team Leader 141156</t>
+          <t>S22 Co-op Coordinator, Construction Services - Indigenous Student Employment Opportunity-4463 141019</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Dillon Consulting Limited</t>
+          <t>Defence Construction Canada</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5255,7 +5251,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Surrey, BC</t>
+          <t>Various, AB and BC</t>
         </is>
       </c>
       <c r="K98" t="n">
@@ -5263,7 +5259,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Mar 23, 2022  09:00 AM</t>
+          <t>May 31, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M98" t="inlineStr"/>
@@ -5285,16 +5281,16 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>141158</v>
+        <v>141070</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>NEW  S22 Community Education Team Leader 141158</t>
+          <t>S22 Co-op Coordinator, Construction Services - Indigenous Student Employment Opportunity 141070</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Dillon Consulting Limited</t>
+          <t>Defence Construction Canada</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5304,7 +5300,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Surrey, BC</t>
+          <t>Various, Western Canada</t>
         </is>
       </c>
       <c r="K99" t="n">
@@ -5312,7 +5308,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Mar 23, 2022  09:00 AM</t>
+          <t>Mar 31, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M99" t="inlineStr"/>
@@ -5334,16 +5330,16 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>141159</v>
+        <v>140856</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>NEW  S22 Watershed Enhancement Team Leader 141159</t>
+          <t>S22 Big Data Scientist 140856B E1</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Dillon Consulting Limited</t>
+          <t>Definity Financial Corporation</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5353,15 +5349,15 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Surrey, BC</t>
+          <t>Waterloo, ON</t>
         </is>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Mar 23, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M100" t="inlineStr"/>
@@ -5372,27 +5368,31 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Applied</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Applied via employer's website</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
           <t>2022 - Summer</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>141062</v>
+        <v>139157</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>S22 Co-op ENVIRONMENTAL STUDENT 141062</t>
+          <t>S22 Software Development Internship (Vancouver; Req: R010669) - May 2022 139157 E6</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>DIstrict of Mission</t>
+          <t>DemonWare Inc.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5402,15 +5402,15 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Mission, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Mar 21, 2022  09:00 AM</t>
+          <t>Mar 16, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M101" t="inlineStr"/>
@@ -5432,16 +5432,16 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>140999</v>
+        <v>140176</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>S22 Environmental Assistant - Temporary Full-Time Summer Student 140999B</t>
+          <t>NEW  S22 Engineering Co-op Student 140176B E1</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>District of North Vancouver</t>
+          <t>Digital Lab - BC Children's Hospital</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5451,7 +5451,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>North Vancouver, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K102" t="n">
@@ -5481,16 +5481,16 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>140407</v>
+        <v>141156</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>S22 Field Biologist/Technician 140407B E2</t>
+          <t>NEW  S22 Media and Public Relations Team Leader 141156</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Duka Environmental Services Ltd.</t>
+          <t>Dillon Consulting Limited</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -5500,15 +5500,15 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Victoria, Kelowna, Merrit/Kamloops, Prince George, BC</t>
+          <t>Surrey, BC</t>
         </is>
       </c>
       <c r="K103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 23, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M103" t="inlineStr"/>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Shortlisted  Apply</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -5530,16 +5530,16 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>140024</v>
+        <v>141158</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>S22 Co-op Software Engineer (LiveOps) 140024 E3</t>
+          <t>NEW  S22 Community Education Team Leader 141158</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>East Side Games, Inc.</t>
+          <t>Dillon Consulting Limited</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -5549,15 +5549,15 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Surrey, BC</t>
         </is>
       </c>
       <c r="K104" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 23, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M104" t="inlineStr"/>
@@ -5579,16 +5579,16 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>140607</v>
+        <v>141159</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>S22 Co-op Intern - Power Systems Engineering Representative (8/12-month) 140607</t>
+          <t>NEW  S22 Watershed Enhancement Team Leader 141159</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Eaton Canada</t>
+          <t>Dillon Consulting Limited</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -5598,7 +5598,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Delta, BC</t>
+          <t>Surrey, BC</t>
         </is>
       </c>
       <c r="K105" t="n">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Mar 30, 2022  09:00 AM</t>
+          <t>Mar 23, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M105" t="inlineStr"/>
@@ -5628,16 +5628,16 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>140928</v>
+        <v>141062</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>S22 Co-op Embedded Engineer 140928 E1</t>
+          <t>S22 Co-op ENVIRONMENTAL STUDENT 141062</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Ecoation Innovative Solutions Inc. (Crop Sense)</t>
+          <t>DIstrict of Mission</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -5647,15 +5647,15 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Mission, BC</t>
         </is>
       </c>
       <c r="K106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Mar 16, 2022  09:00 AM</t>
+          <t>Mar 21, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M106" t="inlineStr"/>
@@ -5677,16 +5677,16 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>140929</v>
+        <v>140999</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>S22 Co-op Data Scientist 140929 E1</t>
+          <t>S22 Environmental Assistant - Temporary Full-Time Summer Student 140999B</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Ecoation Innovative Solutions Inc. (Crop Sense)</t>
+          <t>District of North Vancouver</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -5696,15 +5696,15 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>North Vancouver, BC</t>
         </is>
       </c>
       <c r="K107" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Mar 16, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M107" t="inlineStr"/>
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>140930</v>
+        <v>140407</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>S22 Co-op Software Release and Test Engineer (COOP) 140930 E1</t>
+          <t>S22 Field Biologist/Technician 140407B E2</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Ecoation Innovative Solutions Inc. (Crop Sense)</t>
+          <t>Duka Environmental Services Ltd.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -5745,15 +5745,15 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Victoria, Kelowna, Merrit/Kamloops, Prince George, BC</t>
         </is>
       </c>
       <c r="K108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Mar 16, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M108" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -5775,16 +5775,16 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>140651</v>
+        <v>140024</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>S22 Engineering Co-op 140651B E3</t>
+          <t>S22 Co-op Software Engineer (LiveOps) 140024 E3</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Ekona Power</t>
+          <t>East Side Games, Inc.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -5794,15 +5794,15 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K109" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M109" t="inlineStr"/>
@@ -5824,16 +5824,16 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>139959</v>
+        <v>140607</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>S22 Summer 2022 co-op job opportunities Vancouver, BC 139959 E1</t>
+          <t>S22 Co-op Intern - Power Systems Engineering Representative (8/12-month) 140607</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Electronic Arts (EA Canada) Inc.</t>
+          <t>Eaton Canada</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -5843,15 +5843,15 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Delta, BC</t>
         </is>
       </c>
       <c r="K110" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Mar 16, 2022  09:00 AM</t>
+          <t>Mar 30, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M110" t="inlineStr"/>
@@ -5873,16 +5873,16 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>139813</v>
+        <v>140928</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>S22 Co-op Enbridge IT Co-op Various Postings 139813 E2</t>
+          <t>S22 Co-op Embedded Engineer 140928 E1</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Enbridge</t>
+          <t>Ecoation Innovative Solutions Inc. (Crop Sense)</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -5892,15 +5892,15 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Various</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 16, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M111" t="inlineStr"/>
@@ -5922,16 +5922,16 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>140261</v>
+        <v>140929</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>S22 Co-op Engineering (Enterprise Asset Management) Co-op Student 140261 E3</t>
+          <t>S22 Co-op Data Scientist 140929 E1</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Enbridge</t>
+          <t>Ecoation Innovative Solutions Inc. (Crop Sense)</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -5941,15 +5941,15 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Various, Canada</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 16, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M112" t="inlineStr"/>
@@ -5971,16 +5971,16 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>141035</v>
+        <v>140930</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>S22 Co-op Transmission Integrity - Summer Student 141035</t>
+          <t>S22 Co-op Software Release and Test Engineer (COOP) 140930 E1</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Enbridge</t>
+          <t>Ecoation Innovative Solutions Inc. (Crop Sense)</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -5990,15 +5990,15 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Chatham, ON</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Mar 14, 2022  09:00 AM</t>
+          <t>Mar 16, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M113" t="inlineStr"/>
@@ -6020,16 +6020,16 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>141121</v>
+        <v>140651</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>S22 Program Project Delivery (Technical Information Systems) Co-op Student 141121</t>
+          <t>S22 Engineering Co-op 140651B E3</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Enbridge</t>
+          <t>Ekona Power</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6039,15 +6039,15 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>North York, ON</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Mar 16, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M114" t="inlineStr"/>
@@ -6069,16 +6069,16 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>140870</v>
+        <v>139959</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>S22 Compliance Co-op 140870</t>
+          <t>S22 Summer 2022 co-op job opportunities Vancouver, BC 139959 E1</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>EnerSys Analytics Inc.</t>
+          <t>Electronic Arts (EA Canada) Inc.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6088,15 +6088,15 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 16, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M115" t="inlineStr"/>
@@ -6118,16 +6118,16 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>140642</v>
+        <v>139813</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>S22 Co-op Work Term Student 140642B E1</t>
+          <t>S22 Co-op Enbridge IT Co-op Various Postings 139813 E2</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Environment and Climate Change Canada</t>
+          <t>Enbridge</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6137,15 +6137,15 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="K116" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M116" t="inlineStr"/>
@@ -6167,16 +6167,16 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>141059</v>
+        <v>140261</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>S22 Junior Regulatory Development Officer 141059</t>
+          <t>S22 Co-op Engineering (Enterprise Asset Management) Co-op Student 140261 E3</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Environment and Climate Change Canada</t>
+          <t>Enbridge</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Gatineau, QC</t>
+          <t>Various, Canada</t>
         </is>
       </c>
       <c r="K117" t="n">
@@ -6194,7 +6194,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M117" t="inlineStr"/>
@@ -6216,16 +6216,16 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>140831</v>
+        <v>141035</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>NEW  S22 Communications Technician Co-op Student 140831B E2</t>
+          <t>S22 Co-op Transmission Integrity - Summer Student 141035</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Environment Canada - Canadian Wildlife Service</t>
+          <t>Enbridge</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6235,11 +6235,11 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Delta, BC</t>
+          <t>Chatham, ON</t>
         </is>
       </c>
       <c r="K118" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -6265,16 +6265,16 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>140392</v>
+        <v>141121</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>S22 Co-op Environmental, Health and Safety Co-op Student 140392 E2</t>
+          <t>S22 Program Project Delivery (Technical Information Systems) Co-op Student 141121</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>ERM</t>
+          <t>Enbridge</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6284,15 +6284,15 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Various, Canada</t>
+          <t>North York, ON</t>
         </is>
       </c>
       <c r="K119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 16, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M119" t="inlineStr"/>
@@ -6314,16 +6314,16 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>140914</v>
+        <v>140870</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>S22 Co-op EY Spring Recruitment positions 140914</t>
+          <t>S22 Compliance Co-op 140870</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Ernst &amp; Young (EY)</t>
+          <t>EnerSys Analytics Inc.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6333,15 +6333,15 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Various, Canada</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Apr 11, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M120" t="inlineStr"/>
@@ -6363,16 +6363,16 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>141128</v>
+        <v>140642</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>S22 Project Engineer Student 141128B</t>
+          <t>S22 Co-op Work Term Student 140642B E1</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Evolugen</t>
+          <t>Environment and Climate Change Canada</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6382,15 +6382,15 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Powell River, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M121" t="inlineStr"/>
@@ -6412,16 +6412,16 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>140457</v>
+        <v>141059</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>S22 Operational Excellence Student (Calgary) 140457 E2</t>
+          <t>S22 Junior Regulatory Development Officer 141059</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Evraz Inc</t>
+          <t>Environment and Climate Change Canada</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6431,11 +6431,11 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Calgary, AB</t>
+          <t>Gatineau, QC</t>
         </is>
       </c>
       <c r="K122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -6461,16 +6461,16 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>140458</v>
+        <v>140831</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>S22 Operational Excellence Student (Regina) 140458 E2</t>
+          <t>NEW  S22 Communications Technician Co-op Student 140831B E2</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Evraz Inc</t>
+          <t>Environment Canada - Canadian Wildlife Service</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -6480,15 +6480,15 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Regina, SK</t>
+          <t>Delta, BC</t>
         </is>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M123" t="inlineStr"/>
@@ -6510,16 +6510,16 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>139987</v>
+        <v>140392</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>S22 Software Developer (Front End) 139987 E3</t>
+          <t>S22 Co-op Environmental, Health and Safety Co-op Student 140392 E2</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>FI.SPAN</t>
+          <t>ERM</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -6529,15 +6529,15 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Various, Canada</t>
         </is>
       </c>
       <c r="K124" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Mar 17, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M124" t="inlineStr"/>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Shortlisted  Apply</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -6559,16 +6559,16 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>141153</v>
+        <v>140914</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>NEW  S22 Software Developer (ERP Team) Co-op 141153</t>
+          <t>S22 Co-op EY Spring Recruitment positions 140914</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>FI.SPAN</t>
+          <t>Ernst &amp; Young (EY)</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -6578,15 +6578,15 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Various, Canada</t>
         </is>
       </c>
       <c r="K125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Apr 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M125" t="inlineStr"/>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>140922</v>
+        <v>141128</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>S22 Intern, Canadian Equities Small Cap 140922B E1</t>
+          <t>S22 Project Engineer Student 141128B</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Fiera Capital</t>
+          <t>Evolugen</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Powell River, BC</t>
         </is>
       </c>
       <c r="K126" t="n">
@@ -6657,16 +6657,16 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>140739</v>
+        <v>140457</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>S22 Co-op Control System Co op 140739 E2</t>
+          <t>S22 Operational Excellence Student (Calgary) 140457 E2</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Fluor Corporation</t>
+          <t>Evraz Inc</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -6676,15 +6676,15 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Calgary, AB</t>
         </is>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M127" t="inlineStr"/>
@@ -6706,16 +6706,16 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>141074</v>
+        <v>140458</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>S22 Various Engineering Discipline Co-op 141074</t>
+          <t>S22 Operational Excellence Student (Regina) 140458 E2</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Fluor Corporation</t>
+          <t>Evraz Inc</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6725,7 +6725,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Regina, SK</t>
         </is>
       </c>
       <c r="K128" t="n">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>140381</v>
+        <v>139987</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>S22 Engineering Co-op, Mechanical 140381 E3</t>
+          <t>S22 Software Developer (Front End) 139987 E3</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>FortisBC</t>
+          <t>FI.SPAN</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -6774,15 +6774,15 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Surrey, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 17, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M129" t="inlineStr"/>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -6804,16 +6804,16 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>140382</v>
+        <v>141153</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>S22 Engineering Co-op, System Integrity 140382 E3</t>
+          <t>NEW  S22 Software Developer (ERP Team) Co-op 141153</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>FortisBC</t>
+          <t>FI.SPAN</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Surrey, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -6853,16 +6853,16 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>140915</v>
+        <v>140922</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>S22 Engineering Co-op 140915B E1</t>
+          <t>S22 Intern, Canadian Equities Small Cap 140922B E1</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>FTXT Energy Technology Co., Ltd.</t>
+          <t>Fiera Capital</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -6872,7 +6872,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>North Vancouver, BC</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="K131" t="n">
@@ -6880,7 +6880,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M131" t="inlineStr"/>
@@ -6902,16 +6902,16 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>140509</v>
+        <v>140739</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>S22 Co-op Process Engineer Co-op 140509 E2</t>
+          <t>S22 Co-op Control System Co op 140739 E2</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Garibaldi Glass Industries Inc.</t>
+          <t>Fluor Corporation</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -6921,15 +6921,15 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Mar 14, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M132" t="inlineStr"/>
@@ -6951,16 +6951,16 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>140740</v>
+        <v>141074</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>NEW  S22 Embedded Linux Engineer Co-op 140740B E1</t>
+          <t>S22 Various Engineering Discipline Co-op 141074</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Generac Power Systems</t>
+          <t>Fluor Corporation</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -6974,11 +6974,11 @@
         </is>
       </c>
       <c r="K133" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M133" t="inlineStr"/>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Shortlisted  Apply</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -7000,16 +7000,16 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>140741</v>
+        <v>140381</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>NEW  S22 Embedded Systems Test Automation Engineer Co-op 140741B E1</t>
+          <t>S22 Engineering Co-op, Mechanical 140381 E3</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Generac Power Systems</t>
+          <t>FortisBC</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7019,15 +7019,15 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Surrey, BC</t>
         </is>
       </c>
       <c r="K134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M134" t="inlineStr"/>
@@ -7049,16 +7049,16 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>140744</v>
+        <v>140382</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>S22 Co-op Co-op - Information Technology Student - 4 Months - Summer 140744 E1</t>
+          <t>S22 Engineering Co-op, System Integrity 140382 E3</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>General Dynamics Canada</t>
+          <t>FortisBC</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7068,7 +7068,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Ottawa, ON</t>
+          <t>Surrey, BC</t>
         </is>
       </c>
       <c r="K135" t="n">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M135" t="inlineStr"/>
@@ -7087,7 +7087,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Shortlisted  Apply</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -7098,16 +7098,16 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>140838</v>
+        <v>140915</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>S22 Java Developer, Big Data Co-op 140838 E1</t>
+          <t>S22 Engineering Co-op 140915B E1</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Global Relay Communications Inc.</t>
+          <t>FTXT Energy Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7117,15 +7117,15 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>North Vancouver, BC</t>
         </is>
       </c>
       <c r="K136" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Mar 18, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M136" t="inlineStr"/>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Shortlisted  Apply</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -7147,16 +7147,16 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>140841</v>
+        <v>140509</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>S22 Software Development Engineer in Test (SDET) Co-op 140841 E1</t>
+          <t>S22 Co-op Process Engineer Co-op 140509 E2</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Global Relay Communications Inc.</t>
+          <t>Garibaldi Glass Industries Inc.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7166,15 +7166,15 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K137" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Mar 18, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M137" t="inlineStr"/>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Shortlisted  Apply</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -7196,16 +7196,16 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>141096</v>
+        <v>140740</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>S22 Software Developer 141096B</t>
+          <t>NEW  S22 Embedded Linux Engineer Co-op 140740B E1</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>GlüxKind</t>
+          <t>Generac Power Systems</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -7219,11 +7219,11 @@
         </is>
       </c>
       <c r="K138" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M138" t="inlineStr"/>
@@ -7234,7 +7234,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -7245,16 +7245,16 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>141097</v>
+        <v>140741</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>S22 Electrical Engineer 141097B</t>
+          <t>NEW  S22 Embedded Systems Test Automation Engineer Co-op 140741B E1</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>GlüxKind</t>
+          <t>Generac Power Systems</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -7268,11 +7268,11 @@
         </is>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M139" t="inlineStr"/>
@@ -7294,16 +7294,16 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>141090</v>
+        <v>140744</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>S22 Geographic Information System Co-op 141090B</t>
+          <t>S22 Co-op Co-op - Information Technology Student - 4 Months - Summer 140744 E1</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Government of Nova Scotia</t>
+          <t>General Dynamics Canada</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Various, NS</t>
+          <t>Ottawa, ON</t>
         </is>
       </c>
       <c r="K140" t="n">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M140" t="inlineStr"/>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -7343,16 +7343,16 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>141030</v>
+        <v>140838</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>S22 Co-op Application Engineering Co-op Student 141030</t>
+          <t>S22 Java Developer, Big Data Co-op 140838 E1</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Greenlight Innovation</t>
+          <t>Global Relay Communications Inc.</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -7362,15 +7362,15 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 18, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M141" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -7392,16 +7392,16 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>140925</v>
+        <v>140841</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>S22 Applications Specialist Intern 140925B E1</t>
+          <t>S22 Software Development Engineer in Test (SDET) Co-op 140841 E1</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Harris Computer</t>
+          <t>Global Relay Communications Inc.</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -7411,15 +7411,15 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K142" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 18, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M142" t="inlineStr"/>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -7441,16 +7441,16 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>140690</v>
+        <v>141096</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>S22 Project Controller 140690 E1</t>
+          <t>S22 Software Developer 141096B</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Hatch Ltd.</t>
+          <t>GlüxKind</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -7464,11 +7464,11 @@
         </is>
       </c>
       <c r="K143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M143" t="inlineStr"/>
@@ -7490,16 +7490,16 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>140879</v>
+        <v>141097</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>S22 Student Geological Engineering / Geoscience-55163 140879 E1</t>
+          <t>S22 Electrical Engineer 141097B</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Hatch Ltd.</t>
+          <t>GlüxKind</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Mar 16, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M144" t="inlineStr"/>
@@ -7539,16 +7539,16 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>141017</v>
+        <v>141090</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>S22 Co-op Mechanical co-op student 141017</t>
+          <t>S22 Geographic Information System Co-op 141090B</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Hatch Ltd.</t>
+          <t>Government of Nova Scotia</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -7558,7 +7558,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Various, NS</t>
         </is>
       </c>
       <c r="K145" t="n">
@@ -7566,7 +7566,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Mar 25, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M145" t="inlineStr"/>
@@ -7588,16 +7588,16 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>141021</v>
+        <v>141030</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>S22 Co-op Service Desk Intern - Vancouver (Summer 2022) 141021</t>
+          <t>S22 Co-op Application Engineering Co-op Student 141030</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Hatch Ltd.</t>
+          <t>Greenlight Innovation</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7607,7 +7607,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K146" t="n">
@@ -7615,7 +7615,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Mar 28, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M146" t="inlineStr"/>
@@ -7637,16 +7637,16 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>140466</v>
+        <v>140925</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>S22 Transportation Engineer 140466 E2</t>
+          <t>S22 Applications Specialist Intern 140925B E1</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>HDR Inc</t>
+          <t>Harris Computer</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -7656,15 +7656,15 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Richmond Hill, ON</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M147" t="inlineStr"/>
@@ -7686,16 +7686,16 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>140899</v>
+        <v>140690</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>S22 Jr. Electrical Engineer 140899B</t>
+          <t>S22 Project Controller 140690 E1</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Hevvy Pumps</t>
+          <t>Hatch Ltd.</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -7705,15 +7705,15 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Port Coquitlam, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M148" t="inlineStr"/>
@@ -7735,16 +7735,16 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>140953</v>
+        <v>140879</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>S22 Field Service Engineer Intern 140953 E1</t>
+          <t>S22 Student Geological Engineering / Geoscience-55163 140879 E1</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Honeywell ASCa Inc.</t>
+          <t>Hatch Ltd.</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -7754,7 +7754,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K149" t="n">
@@ -7762,7 +7762,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Mar 17, 2022  09:00 AM</t>
+          <t>Mar 16, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M149" t="inlineStr"/>
@@ -7784,16 +7784,16 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>141032</v>
+        <v>141017</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>S22 Engineering co-op (MICe) 141032B</t>
+          <t>S22 Co-op Mechanical co-op student 141017</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Hospital for Sick Children (SickKids)</t>
+          <t>Hatch Ltd.</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K150" t="n">
@@ -7811,7 +7811,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 25, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M150" t="inlineStr"/>
@@ -7822,7 +7822,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Shortlisted  Apply</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -7833,16 +7833,16 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>140819</v>
+        <v>141021</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>S22 Intern/Co-op - Cloud Full Stack Developer 140819 E1</t>
+          <t>S22 Co-op Service Desk Intern - Vancouver (Summer 2022) 141021</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>HSBC Bank Canada</t>
+          <t>Hatch Ltd.</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -7856,11 +7856,11 @@
         </is>
       </c>
       <c r="K151" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Mar 17, 2022  09:00 AM</t>
+          <t>Mar 28, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M151" t="inlineStr"/>
@@ -7882,16 +7882,16 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>141058</v>
+        <v>140466</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>S22 Various Opportunities 141058B</t>
+          <t>S22 Transportation Engineer 140466 E2</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>iA Financial Group (Industrial Alliance)</t>
+          <t>HDR Inc</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -7901,15 +7901,15 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Toronto, ON or Vancouver, BC</t>
+          <t>Richmond Hill, ON</t>
         </is>
       </c>
       <c r="K152" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Apr 15, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M152" t="inlineStr"/>
@@ -7931,16 +7931,16 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>140064</v>
+        <v>140899</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>S22 DevOps Developer Intern (16 months) 140064 E2</t>
+          <t>S22 Jr. Electrical Engineer 140899B</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>IBM Canada Ltd.</t>
+          <t>Hevvy Pumps</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -7950,15 +7950,15 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Markham, ON</t>
+          <t>Port Coquitlam, BC</t>
         </is>
       </c>
       <c r="K153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M153" t="inlineStr"/>
@@ -7980,16 +7980,16 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>139912</v>
+        <v>141164</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>S22 IBM Summer 2022 Opportunities - Various Locations 139912 E2</t>
+          <t>NEW  S22 Various Opportunities 141164B</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>IBM Canada Ltd.</t>
+          <t>Home Depot International, Inc.</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -7999,15 +7999,15 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Markham, ON</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="K154" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Mar 15, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M154" t="inlineStr"/>
@@ -8029,16 +8029,16 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>140788</v>
+        <v>140953</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>S22 System Access Analyst 140788 E1</t>
+          <t>S22 Field Service Engineer Intern 140953 E1</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>ICBC Insurance Corporation of British Columbia</t>
+          <t>Honeywell ASCa Inc.</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -8048,15 +8048,15 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 17, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M155" t="inlineStr"/>
@@ -8078,16 +8078,16 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>140789</v>
+        <v>141032</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>S22 Full Stack Software Developer - Innovation and Automation Co-op (Onsite/Remote) 140789 E1</t>
+          <t>S22 Engineering co-op (MICe) 141032B</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>ICBC Insurance Corporation of British Columbia</t>
+          <t>Hospital for Sick Children (SickKids)</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -8097,15 +8097,15 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>North Vancouver, BC</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="K156" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M156" t="inlineStr"/>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -8127,16 +8127,16 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>140791</v>
+        <v>140819</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>S22 Middleware Platforms Co-op (Onsite/Remote) 140791 E1</t>
+          <t>S22 Intern/Co-op - Cloud Full Stack Developer 140819 E1</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>ICBC Insurance Corporation of British Columbia</t>
+          <t>HSBC Bank Canada</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -8146,15 +8146,15 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>North Vancouver, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K157" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 17, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M157" t="inlineStr"/>
@@ -8176,16 +8176,16 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>140793</v>
+        <v>141058</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>S22 Technical Operations and Software Platforms Co-op (Onsite/Remote) 140793 E1</t>
+          <t>S22 Various Opportunities 141058B</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>ICBC Insurance Corporation of British Columbia</t>
+          <t>iA Financial Group (Industrial Alliance)</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -8195,15 +8195,15 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>North Vancouver, BC</t>
+          <t>Toronto, ON or Vancouver, BC</t>
         </is>
       </c>
       <c r="K158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Apr 15, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M158" t="inlineStr"/>
@@ -8225,16 +8225,16 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>140794</v>
+        <v>140064</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>S22 Associate Security Operations Analyst Co-op (Onsite/Remote) 140794 E1</t>
+          <t>S22 DevOps Developer Intern (16 months) 140064 E2</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>ICBC Insurance Corporation of British Columbia</t>
+          <t>IBM Canada Ltd.</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>North Vancouver, BC</t>
+          <t>Markham, ON</t>
         </is>
       </c>
       <c r="K159" t="n">
@@ -8252,7 +8252,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M159" t="inlineStr"/>
@@ -8274,16 +8274,16 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>140795</v>
+        <v>139912</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>S22 Big Data Management Platforms Co-op (Onsite/Remote) 140795 E1</t>
+          <t>S22 IBM Summer 2022 Opportunities - Various Locations 139912 E2</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>ICBC Insurance Corporation of British Columbia</t>
+          <t>IBM Canada Ltd.</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -8293,15 +8293,15 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>North Vancouver, BC</t>
+          <t>Markham, ON</t>
         </is>
       </c>
       <c r="K160" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 15, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M160" t="inlineStr"/>
@@ -8323,11 +8323,11 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>140797</v>
+        <v>140788</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>S22 Information Management Co-op (Onsite/Remote) 140797 E1</t>
+          <t>S22 System Access Analyst 140788 E1</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8342,11 +8342,11 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>North Vancouver, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K161" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -8372,11 +8372,11 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>140798</v>
+        <v>140789</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>S22 Automation/Performance Test Engineer Co-op (Onsite/Remote) 140798 E1</t>
+          <t>S22 Full Stack Software Developer - Innovation and Automation Co-op (Onsite/Remote) 140789 E1</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8395,7 +8395,7 @@
         </is>
       </c>
       <c r="K162" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -8421,11 +8421,11 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>140799</v>
+        <v>140791</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>S22 Application Development Co-op 140799 E1</t>
+          <t>S22 Middleware Platforms Co-op (Onsite/Remote) 140791 E1</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8444,7 +8444,7 @@
         </is>
       </c>
       <c r="K163" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -8470,11 +8470,11 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>141095</v>
+        <v>140793</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>S22 Co-Op Corporate Project Coordinator 141095</t>
+          <t>S22 Technical Operations and Software Platforms Co-op (Onsite/Remote) 140793 E1</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8489,11 +8489,11 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Lower Mainland, BC</t>
+          <t>North Vancouver, BC</t>
         </is>
       </c>
       <c r="K164" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -8519,11 +8519,11 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>141102</v>
+        <v>140794</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>S22 Application Functional tester 141102</t>
+          <t>S22 Associate Security Operations Analyst Co-op (Onsite/Remote) 140794 E1</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="K165" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -8568,16 +8568,16 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>139174</v>
+        <v>140795</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>S22 Parent Seed Summer Production Associate 139174B E5</t>
+          <t>S22 Big Data Management Platforms Co-op (Onsite/Remote) 140795 E1</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Impres Inc</t>
+          <t>ICBC Insurance Corporation of British Columbia</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -8587,15 +8587,15 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Cranbrook, BC</t>
+          <t>North Vancouver, BC</t>
         </is>
       </c>
       <c r="K166" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Mar 16, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M166" t="inlineStr"/>
@@ -8617,16 +8617,16 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>141014</v>
+        <v>140797</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>S22 Field Solutions Summer Associate - Bayer CropScience - 141014B</t>
+          <t>S22 Information Management Co-op (Onsite/Remote) 140797 E1</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Impres Inc</t>
+          <t>ICBC Insurance Corporation of British Columbia</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -8636,15 +8636,15 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Olds, AB</t>
+          <t>North Vancouver, BC</t>
         </is>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M167" t="inlineStr"/>
@@ -8666,16 +8666,16 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>141023</v>
+        <v>140798</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>S22 Seed Technician Assistant - Bayer CropScience - Lethbridge 141023B</t>
+          <t>S22 Automation/Performance Test Engineer Co-op (Onsite/Remote) 140798 E1</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Impres Inc</t>
+          <t>ICBC Insurance Corporation of British Columbia</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -8685,15 +8685,15 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Lethbridge, AB</t>
+          <t>North Vancouver, BC</t>
         </is>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M168" t="inlineStr"/>
@@ -8715,16 +8715,16 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>140369</v>
+        <v>140799</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>S22 Co-op Mechanical Intern 140369 E2</t>
+          <t>S22 Application Development Co-op 140799 E1</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Integral Group</t>
+          <t>ICBC Insurance Corporation of British Columbia</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -8734,11 +8734,11 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Various, Canada</t>
+          <t>North Vancouver, BC</t>
         </is>
       </c>
       <c r="K169" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -8764,16 +8764,16 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>140370</v>
+        <v>141095</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>S22 Co-op Electrical Intern 140370 E2</t>
+          <t>S22 Co-Op Corporate Project Coordinator 141095</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Integral Group</t>
+          <t>ICBC Insurance Corporation of British Columbia</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -8783,11 +8783,11 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Various, Canada</t>
+          <t>Lower Mainland, BC</t>
         </is>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -8813,16 +8813,16 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>140477</v>
+        <v>141102</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>S22 IMIT Telehealth Systems Student 140477 E2</t>
+          <t>S22 Application Functional tester 141102</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Interior Health Authority</t>
+          <t>ICBC Insurance Corporation of British Columbia</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -8832,11 +8832,11 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Kelowna, BC</t>
+          <t>North Vancouver, BC</t>
         </is>
       </c>
       <c r="K171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -8862,16 +8862,16 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>141006</v>
+        <v>140970</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>S22 Manufacturing Operations Intern 141006B</t>
+          <t>NEW  S22 Various Opportunities 140970B E1</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>J.R. Simplot Company</t>
+          <t>IHS Markit</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -8881,15 +8881,15 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Portage la Prairie, MB</t>
+          <t>Calgary, AB</t>
         </is>
       </c>
       <c r="K172" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M172" t="inlineStr"/>
@@ -8900,7 +8900,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Shortlisted  Apply</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -8911,16 +8911,16 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>141152</v>
+        <v>139174</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>NEW  S22 Jostle Summer Co-op Opportunities 141152</t>
+          <t>S22 Parent Seed Summer Production Associate 139174B E5</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Jostle</t>
+          <t>Impres Inc</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -8930,15 +8930,15 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Cranbrook, BC</t>
         </is>
       </c>
       <c r="K173" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Mar 14, 2022  09:00 AM</t>
+          <t>Mar 16, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M173" t="inlineStr"/>
@@ -8960,16 +8960,16 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>139431</v>
+        <v>141014</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>S22 Clinical Training Co-op 139431 E2</t>
+          <t>S22 Field Solutions Summer Associate - Bayer CropScience - 141014B</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Kardium Inc.</t>
+          <t>Impres Inc</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -8979,15 +8979,15 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Olds, AB</t>
         </is>
       </c>
       <c r="K174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Mar 14, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M174" t="inlineStr"/>
@@ -9009,16 +9009,16 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>141115</v>
+        <v>141023</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>S22 AI-Product Developer 141115</t>
+          <t>S22 Seed Technician Assistant - Bayer CropScience - Lethbridge 141023B</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Keirton Inc</t>
+          <t>Impres Inc</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -9028,15 +9028,15 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Surrey, BC</t>
+          <t>Lethbridge, AB</t>
         </is>
       </c>
       <c r="K175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Mar 14, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M175" t="inlineStr"/>
@@ -9058,16 +9058,16 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>141010</v>
+        <v>140891</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>S22 Co-op Process Safety Co-Op Student 141010</t>
+          <t>NEW  S22 Engineering Co-op 140891B E1</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Keyera</t>
+          <t>INEO Solutions Inc.</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -9077,11 +9077,11 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Calgary or Edmonton, AB</t>
+          <t>Surrey, BC</t>
         </is>
       </c>
       <c r="K176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -9107,16 +9107,16 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>140951</v>
+        <v>140369</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>S22 ELECTRIFICATION ENGINEER INTERN 140951 E1</t>
+          <t>S22 Co-op Mechanical Intern 140369 E2</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Kiewit</t>
+          <t>Integral Group</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -9126,7 +9126,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Various, Canada</t>
         </is>
       </c>
       <c r="K177" t="n">
@@ -9134,7 +9134,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Mar 17, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M177" t="inlineStr"/>
@@ -9156,16 +9156,16 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>140534</v>
+        <v>140370</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>S22 Various Opportunities 140534B E3</t>
+          <t>S22 Co-op Electrical Intern 140370 E2</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Kinaxis</t>
+          <t>Integral Group</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -9175,15 +9175,15 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Various, ON</t>
+          <t>Various, Canada</t>
         </is>
       </c>
       <c r="K178" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M178" t="inlineStr"/>
@@ -9205,16 +9205,16 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>140813</v>
+        <v>140477</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>S22 Education Game Developer Intern 140813B</t>
+          <t>S22 IMIT Telehealth Systems Student 140477 E2</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Knowledgehook</t>
+          <t>Interior Health Authority</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -9224,7 +9224,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Kelowna, BC</t>
         </is>
       </c>
       <c r="K179" t="n">
@@ -9232,7 +9232,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Apr 11, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M179" t="inlineStr"/>
@@ -9254,16 +9254,16 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>140954</v>
+        <v>141006</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>S22 Electro-Mechanical Intern 140954 E1</t>
+          <t>S22 Manufacturing Operations Intern 141006B</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Kodak Canada ULC</t>
+          <t>J.R. Simplot Company</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -9273,15 +9273,15 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Portage la Prairie, MB</t>
         </is>
       </c>
       <c r="K180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Mar 17, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M180" t="inlineStr"/>
@@ -9292,7 +9292,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -9303,16 +9303,16 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>140955</v>
+        <v>141152</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>S22 Quality Tech Intern 140955 E1</t>
+          <t>NEW  S22 Jostle Summer Co-op Opportunities 141152</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Kodak Canada ULC</t>
+          <t>Jostle</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -9326,11 +9326,11 @@
         </is>
       </c>
       <c r="K181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Mar 17, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M181" t="inlineStr"/>
@@ -9352,16 +9352,16 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>140527</v>
+        <v>139431</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>S22 Co-op Beyond Beer Commercial Internship (2022) 140527 E2</t>
+          <t>S22 Clinical Training Co-op 139431 E2</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Labatt Breweries of Canada</t>
+          <t>Kardium Inc.</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -9371,7 +9371,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K182" t="n">
@@ -9401,16 +9401,16 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>140528</v>
+        <v>141115</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>S22 Supply Intern - London 140528 E2</t>
+          <t>S22 AI-Product Developer 141115</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Labatt Breweries of Canada</t>
+          <t>Keirton Inc</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -9420,7 +9420,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>London, ON</t>
+          <t>Surrey, BC</t>
         </is>
       </c>
       <c r="K183" t="n">
@@ -9450,16 +9450,16 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>140917</v>
+        <v>141010</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>S22 ELECTRICAL ENGINEERING CO-OP POSITION 140917 E1</t>
+          <t>S22 Co-op Process Safety Co-Op Student 141010</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Lantic Inc. / Rogers Sugar</t>
+          <t>Keyera</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Calgary or Edmonton, AB</t>
         </is>
       </c>
       <c r="K184" t="n">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M184" t="inlineStr"/>
@@ -9499,16 +9499,16 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>140771</v>
+        <v>140951</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>S22 Co-op Mechanical Co-Op Student 140771</t>
+          <t>S22 ELECTRIFICATION ENGINEER INTERN 140951 E1</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Laporte Consultants Inc.</t>
+          <t>Kiewit</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -9526,7 +9526,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Apr 30, 2022  09:00 AM</t>
+          <t>Mar 17, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M185" t="inlineStr"/>
@@ -9548,16 +9548,16 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>140777</v>
+        <v>140534</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>S22 Process Co-Op Student 140777</t>
+          <t>S22 Various Opportunities 140534B E3</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Laporte Consultants Inc.</t>
+          <t>Kinaxis</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -9567,15 +9567,15 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Various, ON</t>
         </is>
       </c>
       <c r="K186" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>May 2, 2022  09:00 AM</t>
+          <t>Mar 8, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M186" t="inlineStr"/>
@@ -9597,16 +9597,16 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>140778</v>
+        <v>140813</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>S22 Electrical Coop Student Burnaby 140778</t>
+          <t>S22 Education Game Developer Intern 140813B</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Laporte Consultants Inc.</t>
+          <t>Knowledgehook</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -9616,7 +9616,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="K187" t="n">
@@ -9624,7 +9624,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>May 2, 2022  09:00 AM</t>
+          <t>Apr 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M187" t="inlineStr"/>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Shortlisted  Apply</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -9646,16 +9646,16 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>139814</v>
+        <v>140954</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>S22 QA Dev Co-Op (Summer Term 2022) 139814 E3</t>
+          <t>S22 Electro-Mechanical Intern 140954 E1</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Later</t>
+          <t>Kodak Canada ULC</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -9669,11 +9669,11 @@
         </is>
       </c>
       <c r="K188" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 17, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M188" t="inlineStr"/>
@@ -9695,16 +9695,16 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>140768</v>
+        <v>140955</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>S22 Software Development Intern 140768B E2</t>
+          <t>S22 Quality Tech Intern 140955 E1</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Lattice Semiconductor</t>
+          <t>Kodak Canada ULC</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -9714,15 +9714,15 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Montreal, QC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K189" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Mar 10, 2022  09:00 AM</t>
+          <t>Mar 17, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M189" t="inlineStr"/>
@@ -9744,16 +9744,16 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>141067</v>
+        <v>140527</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>S22 Chemistry Research Assistant Co-op 141067B</t>
+          <t>S22 Co-op Beyond Beer Commercial Internship (2022) 140527 E2</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Livestock Water Recycling</t>
+          <t>Labatt Breweries of Canada</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -9763,7 +9763,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Calgary, AB</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="K190" t="n">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M190" t="inlineStr"/>
@@ -9793,16 +9793,16 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>141091</v>
+        <v>140528</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>S22 Software Developer Co-op 141091B</t>
+          <t>S22 Supply Intern - London 140528 E2</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Loblaw Companies Ltd</t>
+          <t>Labatt Breweries of Canada</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -9812,15 +9812,15 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>London, ON</t>
         </is>
       </c>
       <c r="K191" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M191" t="inlineStr"/>
@@ -9842,16 +9842,16 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>141022</v>
+        <v>140917</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>S22 Co-op Mechanical Engineer 141022</t>
+          <t>S22 ELECTRICAL ENGINEERING CO-OP POSITION 140917 E1</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Loop Energy Inc.</t>
+          <t>Lantic Inc. / Rogers Sugar</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K192" t="n">
@@ -9869,7 +9869,7 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Mar 31, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M192" t="inlineStr"/>
@@ -9891,16 +9891,16 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>141050</v>
+        <v>140771</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>S22 R&amp;amp;D Technician co-op 141050B</t>
+          <t>S22 Co-op Mechanical Co-Op Student 140771</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Lumi Foods</t>
+          <t>Laporte Consultants Inc.</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -9910,15 +9910,15 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Mar 14, 2022  09:00 AM</t>
+          <t>Apr 30, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M193" t="inlineStr"/>
@@ -9940,16 +9940,16 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>141046</v>
+        <v>140777</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>S22 Network Support Intern 141046B</t>
+          <t>S22 Process Co-Op Student 140777</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Managedfuture Technologies</t>
+          <t>Laporte Consultants Inc.</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -9959,7 +9959,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Coquitlam, BC</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K194" t="n">
@@ -9967,7 +9967,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Mar 15, 2022  09:00 AM</t>
+          <t>May 2, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M194" t="inlineStr"/>
@@ -9989,16 +9989,16 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>140653</v>
+        <v>140778</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>S22 Various Opportunities 140653B</t>
+          <t>S22 Electrical Coop Student Burnaby 140778</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Marvell Technology Group Ltd.</t>
+          <t>Laporte Consultants Inc.</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -10008,15 +10008,15 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Ottawa, ON</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K195" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Mar 31, 2022  09:00 AM</t>
+          <t>May 2, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M195" t="inlineStr"/>
@@ -10027,7 +10027,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Shortlist  Apply</t>
+          <t>Shortlisted  Apply</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -10038,16 +10038,16 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>140648</v>
+        <v>139814</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>S22 Backend Engineering Intern 140648B E2</t>
+          <t>S22 QA Dev Co-Op (Summer Term 2022) 139814 E3</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Mercury</t>
+          <t>Later</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -10057,15 +10057,15 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K196" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Mar 8, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M196" t="inlineStr"/>
@@ -10087,16 +10087,16 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>140989</v>
+        <v>140768</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>S22 Laboratory Technician 140989 E1</t>
+          <t>S22 Software Development Intern 140768B E2</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>MerIEUX NutriSciences</t>
+          <t>Lattice Semiconductor</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -10106,15 +10106,15 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Burnaby, BC</t>
+          <t>Montreal, QC</t>
         </is>
       </c>
       <c r="K197" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Mar 11, 2022  09:00 AM</t>
+          <t>Mar 10, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M197" t="inlineStr"/>
@@ -10136,16 +10136,16 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>139937</v>
+        <v>141067</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>S22 Data &amp;amp; Applied Sciences: Intern Opportunities 139937 E3</t>
+          <t>S22 Chemistry Research Assistant Co-op 141067B</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Microsoft Corporation</t>
+          <t>Livestock Water Recycling</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -10155,15 +10155,15 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Calgary, AB</t>
         </is>
       </c>
       <c r="K198" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Mar 16, 2022  09:00 AM</t>
+          <t>Mar 9, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M198" t="inlineStr"/>
@@ -10174,31 +10174,27 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Shortlisted  Applied</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Applied via employer's website</t>
-        </is>
-      </c>
+      <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
           <t>2022 - Summer</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>139938</v>
+        <v>141091</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>S22 Software Engineer: Intern Opportunities (1115401) 139938 E3</t>
+          <t>S22 Software Developer Co-op 141091B</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Microsoft Corporation</t>
+          <t>Loblaw Companies Ltd</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -10208,15 +10204,15 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Toronto, ON</t>
         </is>
       </c>
       <c r="K199" t="n">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Mar 16, 2022  09:00 AM</t>
+          <t>Mar 11, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M199" t="inlineStr"/>
@@ -10238,16 +10234,16 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>139403</v>
+        <v>141022</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>S22 Intern Applied Data, Digital Solutions 139403 E4</t>
+          <t>S22 Co-op Mechanical Engineer 141022</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>MNP</t>
+          <t>Loop Energy Inc.</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -10257,15 +10253,15 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Toronto, ON</t>
+          <t>Burnaby, BC</t>
         </is>
       </c>
       <c r="K200" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Mar 9, 2022  09:00 AM</t>
+          <t>Mar 31, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M200" t="inlineStr"/>
@@ -10276,7 +10272,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Shortlisted  Apply</t>
+          <t>Shortlist  Apply</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -10287,16 +10283,16 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>141130</v>
+        <v>141050</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>NEW  S22 Software Development Co-op 141130B</t>
+          <t>S22 R&amp;amp;D Technician co-op 141050B</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Moz Inc.</t>
+          <t>Lumi Foods</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -10306,7 +10302,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Vancouver, BC or remote</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="K201" t="n">
@@ -10314,7 +10310,7 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Apr 22, 2022  09:00 AM</t>
+          <t>Mar 14, 2022  09:00 AM</t>
         </is>
       </c>
       <c r="M201" t="inlineStr"/>
